--- a/data/trans_orig/PROV-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/PROV-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>272182</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>245013</v>
+        <v>244975</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>301553</v>
+        <v>300133</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2638133077148631</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2374798050506491</v>
+        <v>0.2374424821128242</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2922812411714746</v>
+        <v>0.2909048120869437</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>296</v>
@@ -765,19 +765,19 @@
         <v>312786</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>281338</v>
+        <v>283345</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>342406</v>
+        <v>348095</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.23783929098758</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2139269517491837</v>
+        <v>0.2154532113118504</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2603625773072371</v>
+        <v>0.264688487253288</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>564</v>
@@ -786,19 +786,19 @@
         <v>584968</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>543719</v>
+        <v>543887</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>627629</v>
+        <v>628117</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2492580660244814</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2316817925817495</v>
+        <v>0.2317531978688575</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2674361729988725</v>
+        <v>0.2676441282344977</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>165782</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>143760</v>
+        <v>144003</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>189494</v>
+        <v>189250</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1606845961500928</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1393401712012604</v>
+        <v>0.1395750134585663</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1836677417283691</v>
+        <v>0.1834313155968298</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>242</v>
@@ -836,19 +836,19 @@
         <v>242282</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>218582</v>
+        <v>215908</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>271446</v>
+        <v>271782</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1842291005186342</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1662074542719794</v>
+        <v>0.1641745345723769</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2064048154624202</v>
+        <v>0.2066605436703043</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>413</v>
@@ -857,19 +857,19 @@
         <v>408064</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>369821</v>
+        <v>372042</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>442095</v>
+        <v>445080</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.173878394982308</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1575829777093777</v>
+        <v>0.1585292939475381</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1883791976201045</v>
+        <v>0.1896513230554663</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>67734</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>53977</v>
+        <v>52897</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>85257</v>
+        <v>85234</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0656512477677159</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0523168835677971</v>
+        <v>0.05127043130374711</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08263577977140962</v>
+        <v>0.08261315432367257</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>104</v>
@@ -907,19 +907,19 @@
         <v>108200</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>90894</v>
+        <v>91067</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>132429</v>
+        <v>130602</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.082274385514656</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06911503018722609</v>
+        <v>0.06924625004836392</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1006979681616949</v>
+        <v>0.09930865471162699</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>172</v>
@@ -928,19 +928,19 @@
         <v>175934</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>152770</v>
+        <v>151821</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>201273</v>
+        <v>202341</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.07496647190496192</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06509634032809655</v>
+        <v>0.06469200874552124</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08576355826915653</v>
+        <v>0.08621850280293175</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>99851</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>81748</v>
+        <v>82282</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>117521</v>
+        <v>119573</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09678094669233879</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07923416759569636</v>
+        <v>0.079751860651656</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1139076250639577</v>
+        <v>0.115896786609745</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>90</v>
@@ -978,19 +978,19 @@
         <v>94410</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>76007</v>
+        <v>76344</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>114521</v>
+        <v>115030</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07178868158608614</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05779523639932768</v>
+        <v>0.05805124034509053</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0870810940143478</v>
+        <v>0.08746767115307304</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>194</v>
@@ -999,19 +999,19 @@
         <v>194261</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>168331</v>
+        <v>170180</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>223317</v>
+        <v>223435</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08277585603458555</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07172690035461768</v>
+        <v>0.07251459017412674</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09515682566204331</v>
+        <v>0.09520676601240075</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>87609</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>71841</v>
+        <v>72150</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>107122</v>
+        <v>107872</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.08491518828115102</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06963247865249131</v>
+        <v>0.06993114657353657</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1038279893128736</v>
+        <v>0.1045549279048413</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>133</v>
@@ -1049,19 +1049,19 @@
         <v>127189</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>106892</v>
+        <v>108280</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>149030</v>
+        <v>149035</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.09671371002907397</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.08127997147306758</v>
+        <v>0.0823354844236233</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1133207715334701</v>
+        <v>0.1133251349594055</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>225</v>
@@ -1070,19 +1070,19 @@
         <v>214798</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>187938</v>
+        <v>190518</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>243864</v>
+        <v>243019</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.09152680855664955</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.080081631387224</v>
+        <v>0.08118091058216101</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1039119232898228</v>
+        <v>0.103551675689446</v>
       </c>
     </row>
     <row r="9">
@@ -1099,19 +1099,19 @@
         <v>85241</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>69300</v>
+        <v>70355</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>104945</v>
+        <v>103192</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08261997107185157</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06716966280582523</v>
+        <v>0.06819138119348751</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.101718144897468</v>
+        <v>0.1000190501369651</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>134</v>
@@ -1120,19 +1120,19 @@
         <v>134173</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>114834</v>
+        <v>113754</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>158145</v>
+        <v>155981</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1020236999225912</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.08731889909085702</v>
+        <v>0.08649778231376926</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.120251655768917</v>
+        <v>0.1186062378726551</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>219</v>
@@ -1141,19 +1141,19 @@
         <v>219414</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>191764</v>
+        <v>192839</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>247723</v>
+        <v>246106</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.093493374522789</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.08171179567519374</v>
+        <v>0.08216977503494331</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1055562302915129</v>
+        <v>0.104867036755906</v>
       </c>
     </row>
     <row r="10">
@@ -1170,19 +1170,19 @@
         <v>175299</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>150988</v>
+        <v>152447</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>200161</v>
+        <v>198471</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.169909357047854</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1463455525307088</v>
+        <v>0.1477592834902111</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1940060570899184</v>
+        <v>0.1923682480031075</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>214</v>
@@ -1191,19 +1191,19 @@
         <v>215552</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>191095</v>
+        <v>189453</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>242886</v>
+        <v>241165</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1639039434177257</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.14530694831862</v>
+        <v>0.1440582464731837</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1846883457891769</v>
+        <v>0.1833793825884149</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>386</v>
@@ -1212,19 +1212,19 @@
         <v>390851</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>356363</v>
+        <v>354475</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>426578</v>
+        <v>426129</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1665440613465767</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1518483129123531</v>
+        <v>0.1510438731221159</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.181767213663377</v>
+        <v>0.1815760561115198</v>
       </c>
     </row>
     <row r="11">
@@ -1241,19 +1241,19 @@
         <v>78024</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>62351</v>
+        <v>63153</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>95536</v>
+        <v>96667</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.07562538527413278</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06043345706707396</v>
+        <v>0.06121081096325329</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09259850004218474</v>
+        <v>0.0936943135615039</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>78</v>
@@ -1262,19 +1262,19 @@
         <v>80521</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>61485</v>
+        <v>64304</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>98927</v>
+        <v>99075</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06122718802365285</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04675266210164318</v>
+        <v>0.04889611209834862</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.07522312287786147</v>
+        <v>0.07533545179899062</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>156</v>
@@ -1283,19 +1283,19 @@
         <v>158545</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>136325</v>
+        <v>134509</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>186279</v>
+        <v>181877</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.06755696662764779</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05808899085440929</v>
+        <v>0.05731493193871724</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.07937471401782707</v>
+        <v>0.07749892041445647</v>
       </c>
     </row>
     <row r="12">
@@ -1387,19 +1387,19 @@
         <v>356030</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>324708</v>
+        <v>322723</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>390886</v>
+        <v>389687</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2102438372459585</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1917476999746595</v>
+        <v>0.1905752058440255</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2308270937248116</v>
+        <v>0.2301194004900066</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>340</v>
@@ -1408,19 +1408,19 @@
         <v>354762</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>324068</v>
+        <v>322972</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>392357</v>
+        <v>389172</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2234480068992588</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2041149982463855</v>
+        <v>0.2034245875058674</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2471273066932858</v>
+        <v>0.2451213064361055</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>696</v>
@@ -1429,19 +1429,19 @@
         <v>710792</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>664910</v>
+        <v>663237</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>757379</v>
+        <v>760627</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2166331567675303</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2026495182285793</v>
+        <v>0.2021394136505897</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2308319252877844</v>
+        <v>0.231821569588241</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>345589</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>312400</v>
+        <v>309841</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>379471</v>
+        <v>380555</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2040782080210492</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1844793332984986</v>
+        <v>0.1829683380792693</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2240864093037414</v>
+        <v>0.2247267012840963</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>296</v>
@@ -1479,19 +1479,19 @@
         <v>305622</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>273388</v>
+        <v>276815</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>336884</v>
+        <v>340921</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1924970815514419</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1721940828764546</v>
+        <v>0.1743529111646047</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2121871305937126</v>
+        <v>0.2147296735402945</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>623</v>
@@ -1500,19 +1500,19 @@
         <v>651211</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>605199</v>
+        <v>609702</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>700773</v>
+        <v>699106</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1984742571951403</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1844508123619517</v>
+        <v>0.1858232469271664</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2135794639025352</v>
+        <v>0.2130716674381814</v>
       </c>
     </row>
     <row r="15">
@@ -1529,19 +1529,19 @@
         <v>149298</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>127063</v>
+        <v>127496</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>176217</v>
+        <v>175203</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.08816367499605808</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.07503382031408337</v>
+        <v>0.07528962274078883</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1040603558358303</v>
+        <v>0.1034614471244464</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>132</v>
@@ -1550,19 +1550,19 @@
         <v>135056</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>114196</v>
+        <v>114714</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>159644</v>
+        <v>156840</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.08506516413141943</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.07192684143180172</v>
+        <v>0.0722527846278759</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1005519744548991</v>
+        <v>0.09878603565488218</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>277</v>
@@ -1571,19 +1571,19 @@
         <v>284353</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>253419</v>
+        <v>254083</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>317012</v>
+        <v>318451</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.08666434739916599</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.07723636199190445</v>
+        <v>0.07743859679345678</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.09661806074989591</v>
+        <v>0.09705652157427469</v>
       </c>
     </row>
     <row r="16">
@@ -1600,19 +1600,19 @@
         <v>77514</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>61421</v>
+        <v>62501</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>95200</v>
+        <v>96359</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04577393269766718</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03627071879551442</v>
+        <v>0.03690836364034721</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05621800473464689</v>
+        <v>0.05690243433228039</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>85</v>
@@ -1621,19 +1621,19 @@
         <v>89027</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>71513</v>
+        <v>71241</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>109438</v>
+        <v>109873</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05607394080864904</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04504269998638934</v>
+        <v>0.04487145632501118</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06892961553679491</v>
+        <v>0.06920348499693488</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>162</v>
@@ -1642,19 +1642,19 @@
         <v>166541</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>141834</v>
+        <v>141801</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>192014</v>
+        <v>194254</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05075796763691804</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04322768817108091</v>
+        <v>0.04321763381602824</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05852147175050025</v>
+        <v>0.05920417384870581</v>
       </c>
     </row>
     <row r="17">
@@ -1671,19 +1671,19 @@
         <v>211229</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>187426</v>
+        <v>184833</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>241057</v>
+        <v>239550</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1247357201568984</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1106796219924145</v>
+        <v>0.1091479788953054</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1423498070062919</v>
+        <v>0.1414601365253076</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>178</v>
@@ -1692,19 +1692,19 @@
         <v>171179</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>149336</v>
+        <v>147311</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>195402</v>
+        <v>196661</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1078176255379468</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0940597538057716</v>
+        <v>0.09278412320005287</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1230741927200287</v>
+        <v>0.1238675790583839</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>389</v>
@@ -1713,19 +1713,19 @@
         <v>382408</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>345534</v>
+        <v>344597</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>421037</v>
+        <v>421787</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1165492824591936</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1053108292726237</v>
+        <v>0.1050254083398223</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1283224396174388</v>
+        <v>0.1285509383854268</v>
       </c>
     </row>
     <row r="18">
@@ -1742,19 +1742,19 @@
         <v>180547</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>153939</v>
+        <v>153626</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>206415</v>
+        <v>204681</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1066175196890607</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09090470750666982</v>
+        <v>0.09071974179496234</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1218928327367</v>
+        <v>0.1208690718378278</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>154</v>
@@ -1763,19 +1763,19 @@
         <v>153563</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>132972</v>
+        <v>131468</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>176432</v>
+        <v>179644</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.09672175438519062</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08375252928952732</v>
+        <v>0.08280546968577734</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1111261795137075</v>
+        <v>0.11314905311602</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>330</v>
@@ -1784,19 +1784,19 @@
         <v>334110</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>296809</v>
+        <v>296449</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>370567</v>
+        <v>367124</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1018290923894231</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.09046057350837924</v>
+        <v>0.09035094916887448</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1129404435321035</v>
+        <v>0.1118909689780693</v>
       </c>
     </row>
     <row r="19">
@@ -1813,19 +1813,19 @@
         <v>235189</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>207794</v>
+        <v>207590</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>266047</v>
+        <v>265539</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1388845465054035</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1227073787593208</v>
+        <v>0.1225869822587631</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1571070350321076</v>
+        <v>0.1568071260834852</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>250</v>
@@ -1834,19 +1834,19 @@
         <v>250923</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>225171</v>
+        <v>221838</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>279077</v>
+        <v>279548</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1580448023267672</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1418244407584682</v>
+        <v>0.1397254016133578</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1757775664572583</v>
+        <v>0.1760742465143615</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>471</v>
@@ -1855,19 +1855,19 @@
         <v>486112</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>448088</v>
+        <v>444865</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>528527</v>
+        <v>529212</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1481559357538104</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1365669500541343</v>
+        <v>0.1355845450499717</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1610830614316181</v>
+        <v>0.1612916588119632</v>
       </c>
     </row>
     <row r="20">
@@ -1884,19 +1884,19 @@
         <v>138017</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>115878</v>
+        <v>114880</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>159019</v>
+        <v>161243</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.08150256068790447</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06842852289630398</v>
+        <v>0.06783954522795643</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.09390433685607957</v>
+        <v>0.09521774975741451</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>119</v>
@@ -1905,19 +1905,19 @@
         <v>127540</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>106512</v>
+        <v>107941</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>151787</v>
+        <v>152148</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08033162435932623</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06708656470226355</v>
+        <v>0.06798679438694007</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09560342537163291</v>
+        <v>0.0958308823910865</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>255</v>
@@ -1926,19 +1926,19 @@
         <v>265558</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>234818</v>
+        <v>235437</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>298429</v>
+        <v>297656</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.08093596039881831</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07156717115146273</v>
+        <v>0.0717558655892675</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09095436892027947</v>
+        <v>0.0907186556455649</v>
       </c>
     </row>
     <row r="21">
@@ -2030,19 +2030,19 @@
         <v>115583</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>98023</v>
+        <v>97480</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>136293</v>
+        <v>136049</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2096148065013546</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1777683884339099</v>
+        <v>0.1767837940273379</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2471727805829926</v>
+        <v>0.2467304763855311</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>109</v>
@@ -2051,19 +2051,19 @@
         <v>115963</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>98219</v>
+        <v>96526</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>134757</v>
+        <v>136320</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2434095871062822</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2061645381386398</v>
+        <v>0.2026104099533685</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2828590625215603</v>
+        <v>0.2861386315715073</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>221</v>
@@ -2072,19 +2072,19 @@
         <v>231547</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>206516</v>
+        <v>205683</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>261753</v>
+        <v>259407</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2252792549824943</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2009262865960084</v>
+        <v>0.2001155626634421</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2546685103248576</v>
+        <v>0.2523858047614493</v>
       </c>
     </row>
     <row r="23">
@@ -2101,19 +2101,19 @@
         <v>103656</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>85098</v>
+        <v>84356</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>124129</v>
+        <v>122568</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1879850924811354</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1543292040265908</v>
+        <v>0.1529823185599847</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2251132799471114</v>
+        <v>0.2222821601508855</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>83</v>
@@ -2122,19 +2122,19 @@
         <v>90315</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>72092</v>
+        <v>73445</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>107479</v>
+        <v>109676</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.189572677695453</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1513220176375154</v>
+        <v>0.1541630523024806</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2256010842013386</v>
+        <v>0.2302125282706406</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>183</v>
@@ -2143,19 +2143,19 @@
         <v>193971</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>168635</v>
+        <v>170028</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>218844</v>
+        <v>221044</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1887209648955718</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1640702797967399</v>
+        <v>0.1654262048295465</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2129205999395504</v>
+        <v>0.2150609640827452</v>
       </c>
     </row>
     <row r="24">
@@ -2172,19 +2172,19 @@
         <v>53780</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>39656</v>
+        <v>39647</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>68077</v>
+        <v>67695</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.09753147992099123</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.071917453433528</v>
+        <v>0.071901494488341</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1234596975400946</v>
+        <v>0.1227669612811716</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>34</v>
@@ -2193,19 +2193,19 @@
         <v>34888</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>24787</v>
+        <v>24865</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>47750</v>
+        <v>47922</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07323129572531642</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05202920617405257</v>
+        <v>0.05219242762774816</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1002292651915844</v>
+        <v>0.1005896897785228</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>87</v>
@@ -2214,19 +2214,19 @@
         <v>88668</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>72159</v>
+        <v>72330</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>110185</v>
+        <v>107207</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.08626793636184613</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07020543857671692</v>
+        <v>0.07037176388773214</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1072024916769093</v>
+        <v>0.1043056702291066</v>
       </c>
     </row>
     <row r="25">
@@ -2243,19 +2243,19 @@
         <v>25943</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>17083</v>
+        <v>17439</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>37570</v>
+        <v>38105</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0470482433798266</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03098126053432188</v>
+        <v>0.0316262788361746</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06813508399239147</v>
+        <v>0.06910537651990503</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>23</v>
@@ -2264,19 +2264,19 @@
         <v>24231</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>16105</v>
+        <v>15120</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>35939</v>
+        <v>35943</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05086086376674392</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03380553910793544</v>
+        <v>0.03173705171962047</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07543689892478708</v>
+        <v>0.07544428348539346</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>48</v>
@@ -2285,19 +2285,19 @@
         <v>50174</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>36785</v>
+        <v>37807</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>66147</v>
+        <v>66149</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04881545697198412</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03578902774256918</v>
+        <v>0.03678331347913568</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06435655220297888</v>
+        <v>0.06435884451188742</v>
       </c>
     </row>
     <row r="26">
@@ -2314,19 +2314,19 @@
         <v>59833</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>45132</v>
+        <v>46107</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>76531</v>
+        <v>76202</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1085097966628003</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.08184827704763936</v>
+        <v>0.0836164536164897</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.138792200675259</v>
+        <v>0.1381945117006149</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>73</v>
@@ -2335,19 +2335,19 @@
         <v>73087</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>59606</v>
+        <v>59007</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>90920</v>
+        <v>89672</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1534123552687476</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1251141221420159</v>
+        <v>0.1238571041145526</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1908434350086636</v>
+        <v>0.188224657903118</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>132</v>
@@ -2356,19 +2356,19 @@
         <v>132921</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>112939</v>
+        <v>112750</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>153946</v>
+        <v>154187</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1293228868312762</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1098822303184128</v>
+        <v>0.1096985022602263</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.149778747953309</v>
+        <v>0.1500134309895308</v>
       </c>
     </row>
     <row r="27">
@@ -2385,19 +2385,19 @@
         <v>53058</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>39836</v>
+        <v>39806</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>71250</v>
+        <v>68218</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.09622211797985208</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.07224451253325179</v>
+        <v>0.07218888960643161</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1292143171385531</v>
+        <v>0.1237157075428901</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>47</v>
@@ -2406,19 +2406,19 @@
         <v>47677</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>34942</v>
+        <v>35973</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>61057</v>
+        <v>61719</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1000750385739465</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.07334484224200656</v>
+        <v>0.07550744698927886</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1281596624834708</v>
+        <v>0.1295495508829972</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>96</v>
@@ -2427,19 +2427,19 @@
         <v>100735</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>81518</v>
+        <v>82395</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>120073</v>
+        <v>122288</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.09800801139498243</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.07931111911614341</v>
+        <v>0.08016529245882723</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1168228887224836</v>
+        <v>0.1189782338736015</v>
       </c>
     </row>
     <row r="28">
@@ -2456,19 +2456,19 @@
         <v>82587</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>65134</v>
+        <v>65655</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>100169</v>
+        <v>102638</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1497744855532147</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1181234107446487</v>
+        <v>0.1190679482572729</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.181660428699411</v>
+        <v>0.1861384125893146</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>35</v>
@@ -2477,19 +2477,19 @@
         <v>37473</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>26509</v>
+        <v>27017</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>50453</v>
+        <v>51257</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07865753982799718</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05564364494029129</v>
+        <v>0.05670955626101519</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1059021317700041</v>
+        <v>0.1075886586229448</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>107</v>
@@ -2498,19 +2498,19 @@
         <v>120060</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>99392</v>
+        <v>98942</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>143825</v>
+        <v>143185</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1168105866165177</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.09670148964269473</v>
+        <v>0.09626435383239917</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1399324682283137</v>
+        <v>0.1393090291402657</v>
       </c>
     </row>
     <row r="29">
@@ -2527,19 +2527,19 @@
         <v>56968</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>43656</v>
+        <v>42700</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>73731</v>
+        <v>72785</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1033139775208251</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07917150879493291</v>
+        <v>0.0774386083399393</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.133714796090421</v>
+        <v>0.1319981029032929</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>48</v>
@@ -2548,19 +2548,19 @@
         <v>52777</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>39782</v>
+        <v>39646</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>68008</v>
+        <v>67544</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1107806420355131</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.08350344062359391</v>
+        <v>0.0832182024785893</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1427510884605928</v>
+        <v>0.1417756981088286</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>105</v>
@@ -2569,19 +2569,19 @@
         <v>109745</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>92197</v>
+        <v>88536</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>131788</v>
+        <v>129923</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1067749019453272</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08970152932835605</v>
+        <v>0.08613960273497918</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1282213116912706</v>
+        <v>0.1264060311631043</v>
       </c>
     </row>
     <row r="30">
@@ -2673,19 +2673,19 @@
         <v>743795</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>692767</v>
+        <v>694874</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>789876</v>
+        <v>791053</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2270060124675171</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2114324312377689</v>
+        <v>0.2120753500543084</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.241069912570759</v>
+        <v>0.2414290952763342</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>745</v>
@@ -2694,19 +2694,19 @@
         <v>783511</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>736845</v>
+        <v>738879</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>832017</v>
+        <v>835199</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2318630491918458</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2180532204496681</v>
+        <v>0.2186553091998255</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.246217255092008</v>
+        <v>0.2471589899130493</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1481</v>
@@ -2715,19 +2715,19 @@
         <v>1527306</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1459376</v>
+        <v>1454797</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1604581</v>
+        <v>1594370</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2294719867803773</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2192657423521311</v>
+        <v>0.2185777122279888</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2410822689921326</v>
+        <v>0.2395480920573596</v>
       </c>
     </row>
     <row r="32">
@@ -2744,19 +2744,19 @@
         <v>615027</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>569714</v>
+        <v>570405</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>659483</v>
+        <v>662376</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1877060602011139</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1738766077453304</v>
+        <v>0.1740874301392337</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2012741558904218</v>
+        <v>0.2021569228893228</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>621</v>
@@ -2765,19 +2765,19 @@
         <v>638219</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>596171</v>
+        <v>591971</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>685106</v>
+        <v>683698</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.188867063799036</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1764238453754715</v>
+        <v>0.1751809954402988</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2027423690074579</v>
+        <v>0.2023256035060773</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1219</v>
@@ -2786,19 +2786,19 @@
         <v>1253246</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1188999</v>
+        <v>1186067</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1319537</v>
+        <v>1317259</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1882955152973196</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1786426264466906</v>
+        <v>0.1782020969133178</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1982554787094006</v>
+        <v>0.1979132314512423</v>
       </c>
     </row>
     <row r="33">
@@ -2815,19 +2815,19 @@
         <v>270811</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>242603</v>
+        <v>236239</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>303138</v>
+        <v>302980</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.08265143189585593</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.07404237721104039</v>
+        <v>0.07209997549782993</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.09251775022643567</v>
+        <v>0.09246938738492164</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>270</v>
@@ -2836,19 +2836,19 @@
         <v>278144</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>247912</v>
+        <v>245202</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>310907</v>
+        <v>312769</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.08231066954628553</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.07336419023243648</v>
+        <v>0.07256222402823023</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.09200617709111523</v>
+        <v>0.09255728660912071</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>536</v>
@@ -2857,19 +2857,19 @@
         <v>548955</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>505446</v>
+        <v>508180</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>594227</v>
+        <v>593772</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.08247842286822775</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.07594139485830671</v>
+        <v>0.0763521992526197</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.08928040059762476</v>
+        <v>0.08921202506555226</v>
       </c>
     </row>
     <row r="34">
@@ -2886,19 +2886,19 @@
         <v>203308</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>178077</v>
+        <v>175458</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>232242</v>
+        <v>232831</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.06204955024257806</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0543489982421211</v>
+        <v>0.05354959967757884</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.07088033654129847</v>
+        <v>0.07106002574282061</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>198</v>
@@ -2907,19 +2907,19 @@
         <v>207668</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>181340</v>
+        <v>179644</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>237853</v>
+        <v>236877</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.06145482916190453</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.05366363084696483</v>
+        <v>0.05316182785306625</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.07038737654292815</v>
+        <v>0.0700985254428827</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>404</v>
@@ -2928,19 +2928,19 @@
         <v>410976</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>375087</v>
+        <v>374500</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>454639</v>
+        <v>449560</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.06174760339895809</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.05635545141310853</v>
+        <v>0.05626716374503966</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.06830783500365589</v>
+        <v>0.06754470978083831</v>
       </c>
     </row>
     <row r="35">
@@ -2957,19 +2957,19 @@
         <v>358671</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>323707</v>
+        <v>320803</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>393779</v>
+        <v>393412</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1094663188905285</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.09879537536834912</v>
+        <v>0.09790893550213174</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1201812603153296</v>
+        <v>0.1200693796282745</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>384</v>
@@ -2978,19 +2978,19 @@
         <v>371456</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>338055</v>
+        <v>339860</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>408224</v>
+        <v>408718</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1099243270071369</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.100039934973157</v>
+        <v>0.1005740578483503</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1208050370113032</v>
+        <v>0.1209513574785324</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>746</v>
@@ -2999,19 +2999,19 @@
         <v>730127</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>681846</v>
+        <v>682807</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>783654</v>
+        <v>777349</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1096988549644232</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1024447635097634</v>
+        <v>0.1025891470725756</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1177410843633059</v>
+        <v>0.1167937311482895</v>
       </c>
     </row>
     <row r="36">
@@ -3028,19 +3028,19 @@
         <v>318846</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>286289</v>
+        <v>285183</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>357523</v>
+        <v>355265</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.09731169866799734</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.08737547099371649</v>
+        <v>0.08703784398278284</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1091157746824372</v>
+        <v>0.1084266598443726</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>335</v>
@@ -3049,19 +3049,19 @@
         <v>335412</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>299877</v>
+        <v>300287</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>367440</v>
+        <v>370689</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.09925791853737076</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.08874215753428298</v>
+        <v>0.08886335814769449</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1087360001131038</v>
+        <v>0.1096973540120428</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>645</v>
@@ -3070,19 +3070,19 @@
         <v>654258</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>605503</v>
+        <v>604987</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>702527</v>
+        <v>704595</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.09829981724264457</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.09097458572325121</v>
+        <v>0.09089698027138216</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1055520643369783</v>
+        <v>0.1058627020430525</v>
       </c>
     </row>
     <row r="37">
@@ -3099,19 +3099,19 @@
         <v>493075</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>451723</v>
+        <v>454209</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>536521</v>
+        <v>533334</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1504863476641852</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1378656487539109</v>
+        <v>0.1386243503025551</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.163746070586534</v>
+        <v>0.1627734372741035</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>499</v>
@@ -3120,19 +3120,19 @@
         <v>503949</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>467218</v>
+        <v>465191</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>547599</v>
+        <v>544646</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1491327496273481</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1382631218700738</v>
+        <v>0.1376631257897429</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1620500675791337</v>
+        <v>0.1611760219459653</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>964</v>
@@ -3141,19 +3141,19 @@
         <v>997024</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>941404</v>
+        <v>938742</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1060090</v>
+        <v>1058319</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1497991101203431</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1414424667644364</v>
+        <v>0.1410424325118784</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1592745458478744</v>
+        <v>0.1590084327674128</v>
       </c>
     </row>
     <row r="38">
@@ -3170,19 +3170,19 @@
         <v>273010</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>241080</v>
+        <v>245068</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>305830</v>
+        <v>307074</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.08332257997022398</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.07357749485746923</v>
+        <v>0.07479471627140828</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.09333912450575935</v>
+        <v>0.09371898446702498</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>245</v>
@@ -3191,19 +3191,19 @@
         <v>260838</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>232880</v>
+        <v>231209</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>294809</v>
+        <v>296512</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.0771893931290724</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.06891570960387058</v>
+        <v>0.06842116784739322</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.08724223977964597</v>
+        <v>0.0877462697651006</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>516</v>
@@ -3212,19 +3212,19 @@
         <v>533848</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>490069</v>
+        <v>485810</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>578951</v>
+        <v>578948</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.08020868932770631</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.07363099680889323</v>
+        <v>0.07299105122760598</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.08698523565451678</v>
+        <v>0.0869848011978915</v>
       </c>
     </row>
     <row r="39">
@@ -3555,19 +3555,19 @@
         <v>190979</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>162853</v>
+        <v>166182</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>216332</v>
+        <v>218040</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1959476693575095</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.167090145506352</v>
+        <v>0.1705054003395229</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2219606205644332</v>
+        <v>0.2237128392978761</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>232</v>
@@ -3576,19 +3576,19 @@
         <v>254026</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>225081</v>
+        <v>227192</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>288790</v>
+        <v>286270</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.189884128625709</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1682471405934366</v>
+        <v>0.1698253966661761</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2158701262178545</v>
+        <v>0.2139861640207632</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>401</v>
@@ -3597,19 +3597,19 @@
         <v>445005</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>408529</v>
+        <v>405803</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>487337</v>
+        <v>483319</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1924397792482583</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1766656504386603</v>
+        <v>0.1754869497968925</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2107456285850376</v>
+        <v>0.209008103645561</v>
       </c>
     </row>
     <row r="5">
@@ -3626,19 +3626,19 @@
         <v>192215</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>167778</v>
+        <v>165675</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>218155</v>
+        <v>220368</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1972162385113176</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1721432930317985</v>
+        <v>0.1699853592240702</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2238307549624059</v>
+        <v>0.2261014755884036</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>229</v>
@@ -3647,19 +3647,19 @@
         <v>247786</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>217640</v>
+        <v>220244</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>279877</v>
+        <v>278253</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1852194639022825</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1626856261575274</v>
+        <v>0.164631979325157</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.209207727868872</v>
+        <v>0.2079937633995367</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>407</v>
@@ -3668,19 +3668,19 @@
         <v>440001</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>402223</v>
+        <v>402957</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>477029</v>
+        <v>482235</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1902758436405053</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1739389309164983</v>
+        <v>0.1742561820464467</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2062881533090817</v>
+        <v>0.2085392729978788</v>
       </c>
     </row>
     <row r="6">
@@ -3697,19 +3697,19 @@
         <v>95857</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>77998</v>
+        <v>78391</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>113797</v>
+        <v>116338</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.09835076243307787</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08002741838962682</v>
+        <v>0.08043063952777135</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1167575633318005</v>
+        <v>0.1193647317205672</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>128</v>
@@ -3718,19 +3718,19 @@
         <v>131209</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>111545</v>
+        <v>110385</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>152722</v>
+        <v>152905</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09807828535585268</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08337979375851728</v>
+        <v>0.08251225835339433</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1141595282752677</v>
+        <v>0.1142958140464137</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>222</v>
@@ -3739,19 +3739,19 @@
         <v>227066</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>201632</v>
+        <v>200054</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>257159</v>
+        <v>255701</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.09819312852139603</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08719438468822777</v>
+        <v>0.08651217810897686</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1112066013593462</v>
+        <v>0.1105764537019021</v>
       </c>
     </row>
     <row r="7">
@@ -3768,19 +3768,19 @@
         <v>42847</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>31880</v>
+        <v>31241</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>58057</v>
+        <v>57642</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04396147145455003</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03270989835314299</v>
+        <v>0.0320541320316424</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05956700542129645</v>
+        <v>0.05914115062878403</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>76</v>
@@ -3789,19 +3789,19 @@
         <v>77615</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>61597</v>
+        <v>60856</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>94994</v>
+        <v>95664</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05801735548092053</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04604361556061352</v>
+        <v>0.04548983881074949</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07100786430113547</v>
+        <v>0.07150866373838952</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>115</v>
@@ -3810,19 +3810,19 @@
         <v>120462</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>101509</v>
+        <v>99448</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>143170</v>
+        <v>144039</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05209310587968001</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04389693952319803</v>
+        <v>0.04300584895181458</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06191297346846033</v>
+        <v>0.06228884658380055</v>
       </c>
     </row>
     <row r="8">
@@ -3839,19 +3839,19 @@
         <v>83305</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>67999</v>
+        <v>66902</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>104293</v>
+        <v>103781</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.08547243012033527</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06976860455123764</v>
+        <v>0.06864240716569174</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1070065486985334</v>
+        <v>0.1064812123484798</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>134</v>
@@ -3860,19 +3860,19 @@
         <v>139295</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>117679</v>
+        <v>118278</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>161709</v>
+        <v>164627</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1041228885152884</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.08796506041050053</v>
+        <v>0.08841283635812446</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1208769214404795</v>
+        <v>0.1230582273649796</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>212</v>
@@ -3881,19 +3881,19 @@
         <v>222600</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>196011</v>
+        <v>195642</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>252285</v>
+        <v>252757</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.09626212568443682</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08476381361960185</v>
+        <v>0.08460420715367484</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1090991148651621</v>
+        <v>0.1093031617911791</v>
       </c>
     </row>
     <row r="9">
@@ -3910,19 +3910,19 @@
         <v>105740</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>87754</v>
+        <v>85682</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>126766</v>
+        <v>128113</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1084911594443917</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.09003679945101127</v>
+        <v>0.08791150344124214</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.130063624221138</v>
+        <v>0.1314458772187965</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>144</v>
@@ -3931,19 +3931,19 @@
         <v>156428</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>133520</v>
+        <v>135485</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>180889</v>
+        <v>182784</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1169292950048684</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.09980565102825678</v>
+        <v>0.1012744568932204</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1352141167440872</v>
+        <v>0.1366305230032609</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>245</v>
@@ -3952,19 +3952,19 @@
         <v>262168</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>231849</v>
+        <v>232695</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>293303</v>
+        <v>296442</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1133728042757487</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1002615988897999</v>
+        <v>0.1006272803025487</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1268371464814796</v>
+        <v>0.1281945134635123</v>
       </c>
     </row>
     <row r="10">
@@ -3981,19 +3981,19 @@
         <v>175551</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>150370</v>
+        <v>149746</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>204110</v>
+        <v>200044</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1801184934438602</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.154281864835921</v>
+        <v>0.1536418618297752</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2094198021901194</v>
+        <v>0.2052480470342158</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>208</v>
@@ -4002,19 +4002,19 @@
         <v>226481</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>198329</v>
+        <v>199280</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>253855</v>
+        <v>256306</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1692942263702061</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1482502494588901</v>
+        <v>0.148961455581086</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1897561098976834</v>
+        <v>0.1915878854496771</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>374</v>
@@ -4023,19 +4023,19 @@
         <v>402033</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>364063</v>
+        <v>364941</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>440934</v>
+        <v>441578</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1738564196676543</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1574368805947273</v>
+        <v>0.1578162634438304</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1906789146714618</v>
+        <v>0.1909576868645039</v>
       </c>
     </row>
     <row r="11">
@@ -4052,19 +4052,19 @@
         <v>88148</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>68997</v>
+        <v>69025</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>106153</v>
+        <v>107242</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.09044177523495785</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.070792461125014</v>
+        <v>0.07082127668254118</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1089143860339863</v>
+        <v>0.1100321422520071</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>96</v>
@@ -4073,19 +4073,19 @@
         <v>104956</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>85872</v>
+        <v>87490</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>125462</v>
+        <v>127545</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.07845435674487239</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06418943649290043</v>
+        <v>0.06539852544706506</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09378240814930833</v>
+        <v>0.09533992940735823</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>179</v>
@@ -4094,19 +4094,19 @@
         <v>193104</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>167480</v>
+        <v>169180</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>220632</v>
+        <v>221023</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.08350679308232058</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07242546640790098</v>
+        <v>0.07316089692756582</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.09541084564082544</v>
+        <v>0.09558012346650381</v>
       </c>
     </row>
     <row r="12">
@@ -4198,19 +4198,19 @@
         <v>474540</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>435793</v>
+        <v>436604</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>512599</v>
+        <v>515158</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2416245537243142</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2218954316363319</v>
+        <v>0.2223085685523589</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.26100318060356</v>
+        <v>0.2623059325968171</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>431</v>
@@ -4219,19 +4219,19 @@
         <v>462102</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>423327</v>
+        <v>423923</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>499658</v>
+        <v>502607</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2628859166615879</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2408271609950106</v>
+        <v>0.2411663976132686</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2842514114946165</v>
+        <v>0.2859289396414005</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>875</v>
@@ -4240,19 +4240,19 @@
         <v>936642</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>883099</v>
+        <v>882245</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>987808</v>
+        <v>995396</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2516663833032591</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2372799039433573</v>
+        <v>0.2370503768018433</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2654143276804231</v>
+        <v>0.2674530627150964</v>
       </c>
     </row>
     <row r="14">
@@ -4269,19 +4269,19 @@
         <v>353167</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>317184</v>
+        <v>320132</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>386907</v>
+        <v>389114</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1798240629892104</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1615026422744375</v>
+        <v>0.1630037665921676</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1970036873789622</v>
+        <v>0.1981276199234872</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>319</v>
@@ -4290,19 +4290,19 @@
         <v>346189</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>312385</v>
+        <v>312609</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>383369</v>
+        <v>378209</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1969439723518531</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1777132609559815</v>
+        <v>0.1778407933618091</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2180957151029216</v>
+        <v>0.2151603270022943</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>652</v>
@@ -4311,19 +4311,19 @@
         <v>699355</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>651199</v>
+        <v>648822</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>751560</v>
+        <v>745213</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1879098669300882</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1749706623347705</v>
+        <v>0.1743321502290746</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.201936682286617</v>
+        <v>0.2002312568811589</v>
       </c>
     </row>
     <row r="15">
@@ -4340,19 +4340,19 @@
         <v>137447</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>115954</v>
+        <v>115384</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>160409</v>
+        <v>160314</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.06998492779526272</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.05904094576015733</v>
+        <v>0.05875062320283059</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0816765340558782</v>
+        <v>0.08162824478065762</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>108</v>
@@ -4361,19 +4361,19 @@
         <v>112533</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>92458</v>
+        <v>91967</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>135935</v>
+        <v>135349</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.06401896604539838</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.05259869376135735</v>
+        <v>0.0523191215529925</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.07733220166584999</v>
+        <v>0.07699903971134253</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>240</v>
@@ -4382,19 +4382,19 @@
         <v>249980</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>219080</v>
+        <v>219963</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>282064</v>
+        <v>283076</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.0671671794061595</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.05886475373185973</v>
+        <v>0.05910200946085224</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.07578771078789559</v>
+        <v>0.07605968406969227</v>
       </c>
     </row>
     <row r="16">
@@ -4411,19 +4411,19 @@
         <v>138680</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>115505</v>
+        <v>116326</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>163635</v>
+        <v>163283</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07061253789771461</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0588125702260982</v>
+        <v>0.05923041103170928</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.083319161458781</v>
+        <v>0.08313983639356833</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>110</v>
@@ -4432,19 +4432,19 @@
         <v>115500</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>96704</v>
+        <v>95405</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>138549</v>
+        <v>138786</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06570684795475881</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05501384461654722</v>
+        <v>0.05427522291516519</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07881953575225815</v>
+        <v>0.07895403511327888</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>238</v>
@@ -4453,19 +4453,19 @@
         <v>254180</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>222293</v>
+        <v>223553</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>286861</v>
+        <v>287829</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06829556026464181</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05972786360774631</v>
+        <v>0.06006649764000044</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07707668316386451</v>
+        <v>0.0773367800847081</v>
       </c>
     </row>
     <row r="17">
@@ -4482,19 +4482,19 @@
         <v>246209</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>217647</v>
+        <v>219856</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>278268</v>
+        <v>280932</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1253637655125782</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1108204725165158</v>
+        <v>0.1119455356602685</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1416873758889993</v>
+        <v>0.1430439097996862</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>178</v>
@@ -4503,19 +4503,19 @@
         <v>187021</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>164442</v>
+        <v>162345</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>213394</v>
+        <v>215818</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.106395025444425</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09354955768251967</v>
+        <v>0.09235702685751121</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1213983317310929</v>
+        <v>0.1227768853453863</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>403</v>
@@ -4524,19 +4524,19 @@
         <v>433231</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>396578</v>
+        <v>396271</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>478017</v>
+        <v>477552</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1164047511891002</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1065566306298676</v>
+        <v>0.1064740486524102</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1284385140523859</v>
+        <v>0.1283133614184307</v>
       </c>
     </row>
     <row r="18">
@@ -4553,19 +4553,19 @@
         <v>171658</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>151126</v>
+        <v>147897</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>200462</v>
+        <v>196445</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.08740413036090457</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.07694961028597384</v>
+        <v>0.07530555844146719</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1020703972968422</v>
+        <v>0.1000249253216407</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>131</v>
@@ -4574,19 +4574,19 @@
         <v>137353</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>116792</v>
+        <v>117981</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>160993</v>
+        <v>162967</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.07813895978488405</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06644185467530683</v>
+        <v>0.06711866861769207</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.09158761781863557</v>
+        <v>0.09271071500989692</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>305</v>
@@ -4595,19 +4595,19 @@
         <v>309011</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>275758</v>
+        <v>277210</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>343280</v>
+        <v>345242</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.08302815200905844</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.07409335018259071</v>
+        <v>0.07448360063375982</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09223593937513669</v>
+        <v>0.09276321505037702</v>
       </c>
     </row>
     <row r="19">
@@ -4624,19 +4624,19 @@
         <v>278721</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>247219</v>
+        <v>248827</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>309963</v>
+        <v>312240</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1419181302135467</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1258778825920105</v>
+        <v>0.1266966892631079</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1578259708196548</v>
+        <v>0.1589851277789131</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>225</v>
@@ -4645,19 +4645,19 @@
         <v>246063</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>216332</v>
+        <v>218064</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>276083</v>
+        <v>276516</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1399831666728285</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1230697032899843</v>
+        <v>0.124055016363186</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.157061426724257</v>
+        <v>0.1573078241990766</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>486</v>
@@ -4666,19 +4666,19 @@
         <v>524784</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>480950</v>
+        <v>479533</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>568696</v>
+        <v>566613</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1410042389369296</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1292265591206471</v>
+        <v>0.1288457095387585</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1528030048762871</v>
+        <v>0.15224332120895</v>
       </c>
     </row>
     <row r="20">
@@ -4695,19 +4695,19 @@
         <v>163535</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>142527</v>
+        <v>140725</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>190101</v>
+        <v>192672</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.08326789150646867</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0725714432212165</v>
+        <v>0.07165372109260781</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.09679476124812168</v>
+        <v>0.09810395272338436</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>133</v>
@@ -4716,19 +4716,19 @@
         <v>151043</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>126853</v>
+        <v>128422</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>176981</v>
+        <v>176821</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08592714508426424</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07216554658955578</v>
+        <v>0.07305820497242765</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1006829068868003</v>
+        <v>0.100592106166565</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>292</v>
@@ -4737,19 +4737,19 @@
         <v>314578</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>279181</v>
+        <v>279657</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>350952</v>
+        <v>351537</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.08452386796076304</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07501305475576708</v>
+        <v>0.07514095101324138</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09429727287481306</v>
+        <v>0.09445438763438596</v>
       </c>
     </row>
     <row r="21">
@@ -4841,19 +4841,19 @@
         <v>110497</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>91303</v>
+        <v>91557</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>130199</v>
+        <v>131800</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2296368105704798</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1897483336010172</v>
+        <v>0.1902748152250926</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2705817662439284</v>
+        <v>0.2739084038935151</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>93</v>
@@ -4862,19 +4862,19 @@
         <v>106756</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>88497</v>
+        <v>90143</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>128279</v>
+        <v>129351</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2327717295671503</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1929579614795719</v>
+        <v>0.196547795553591</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2797001276671028</v>
+        <v>0.2820378832621394</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>194</v>
@@ -4883,19 +4883,19 @@
         <v>217253</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>191518</v>
+        <v>191863</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>245393</v>
+        <v>245993</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2311666596311997</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2037828871522139</v>
+        <v>0.2041501712242282</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2611083319689108</v>
+        <v>0.2617469087482273</v>
       </c>
     </row>
     <row r="23">
@@ -4912,19 +4912,19 @@
         <v>116071</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>98176</v>
+        <v>96699</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>137347</v>
+        <v>137063</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2412207082226499</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2040308968408054</v>
+        <v>0.2009619604999369</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2854371138873525</v>
+        <v>0.284848036946044</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>87</v>
@@ -4933,19 +4933,19 @@
         <v>98933</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>81960</v>
+        <v>83126</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>119334</v>
+        <v>118144</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2157142378624829</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1787064627434537</v>
+        <v>0.1812473916025272</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2601956521927732</v>
+        <v>0.2576008719819757</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>193</v>
@@ -4954,19 +4954,19 @@
         <v>215004</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>189270</v>
+        <v>187835</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>245532</v>
+        <v>245523</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2287734807937354</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2013908881447481</v>
+        <v>0.1998644392807726</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2612560021969886</v>
+        <v>0.261246914228191</v>
       </c>
     </row>
     <row r="24">
@@ -4983,19 +4983,19 @@
         <v>39718</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>25921</v>
+        <v>27889</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>54309</v>
+        <v>54696</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0825424106194486</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05386950858929022</v>
+        <v>0.05795876557915995</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1128667653693766</v>
+        <v>0.1136696696775133</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>32</v>
@@ -5004,19 +5004,19 @@
         <v>35233</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>24677</v>
+        <v>24009</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>47603</v>
+        <v>48484</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0768225576923659</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05380610959031935</v>
+        <v>0.05234926265202944</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1037944408319717</v>
+        <v>0.1057142400988826</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>66</v>
@@ -5025,19 +5025,19 @@
         <v>74951</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>60391</v>
+        <v>58386</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>94285</v>
+        <v>94003</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07975110671741883</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.06425821133657082</v>
+        <v>0.062125021779517</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.100323454044402</v>
+        <v>0.1000235103069794</v>
       </c>
     </row>
     <row r="25">
@@ -5054,19 +5054,19 @@
         <v>31091</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>21134</v>
+        <v>21483</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>43152</v>
+        <v>44953</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06461447375726588</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04392200512526939</v>
+        <v>0.04464655934750002</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08967913451225033</v>
+        <v>0.09342145857349618</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>26</v>
@@ -5075,19 +5075,19 @@
         <v>26476</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>17738</v>
+        <v>17348</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>38044</v>
+        <v>37905</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05772812747453854</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.038676292896875</v>
+        <v>0.03782584972090142</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08295072057938105</v>
+        <v>0.08264860508080725</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>55</v>
@@ -5096,19 +5096,19 @@
         <v>57567</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>44498</v>
+        <v>43459</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>73382</v>
+        <v>74694</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06125391790124166</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04734808000643044</v>
+        <v>0.04624256619885707</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07808110470673417</v>
+        <v>0.07947760262851049</v>
       </c>
     </row>
     <row r="26">
@@ -5125,19 +5125,19 @@
         <v>44468</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>32551</v>
+        <v>33522</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>58692</v>
+        <v>58824</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.09241407274857538</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.06764782380741183</v>
+        <v>0.06966613204361771</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.121975060038475</v>
+        <v>0.1222490197901341</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>59</v>
@@ -5146,19 +5146,19 @@
         <v>62634</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>48313</v>
+        <v>49554</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>77453</v>
+        <v>79299</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1365679802353631</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1053420271832022</v>
+        <v>0.1080484530212485</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1688792489006433</v>
+        <v>0.1729047338806301</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>100</v>
@@ -5167,19 +5167,19 @@
         <v>107102</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>88917</v>
+        <v>88969</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>129541</v>
+        <v>130505</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1139613005932241</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09461190359860419</v>
+        <v>0.09466703108443357</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1378374223969478</v>
+        <v>0.1388628720638395</v>
       </c>
     </row>
     <row r="27">
@@ -5196,19 +5196,19 @@
         <v>46648</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>34235</v>
+        <v>34347</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>62134</v>
+        <v>61896</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.09694447336587741</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.07114837806029992</v>
+        <v>0.07138005692142002</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1291272198818089</v>
+        <v>0.1286343793852888</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>42</v>
@@ -5217,19 +5217,19 @@
         <v>47240</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>34921</v>
+        <v>36039</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>63851</v>
+        <v>63196</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1030011959213396</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.07614076236655594</v>
+        <v>0.07857930073168194</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1392204228941438</v>
+        <v>0.1377918332575865</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>86</v>
@@ -5238,19 +5238,19 @@
         <v>93887</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>74712</v>
+        <v>75477</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>113269</v>
+        <v>113700</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.09990017056965078</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.07949639701310687</v>
+        <v>0.08031072767312733</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1205231389674803</v>
+        <v>0.1209813968819813</v>
       </c>
     </row>
     <row r="28">
@@ -5267,19 +5267,19 @@
         <v>51255</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>37216</v>
+        <v>37353</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>68612</v>
+        <v>67307</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.106518813301194</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.07734346581377516</v>
+        <v>0.07762751805940331</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1425914771445905</v>
+        <v>0.1398779369615527</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>46</v>
@@ -5288,19 +5288,19 @@
         <v>50112</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>36784</v>
+        <v>36508</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>65252</v>
+        <v>64208</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1092651809563801</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.08020403940093161</v>
+        <v>0.07960161343557864</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.142275965121757</v>
+        <v>0.1399996239272254</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>91</v>
@@ -5309,19 +5309,19 @@
         <v>101367</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>82727</v>
+        <v>80542</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>123884</v>
+        <v>123655</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1078590482425563</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.08802520592303681</v>
+        <v>0.08570042451079815</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1318174224332992</v>
+        <v>0.1315741536353184</v>
       </c>
     </row>
     <row r="29">
@@ -5338,19 +5338,19 @@
         <v>41434</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>30028</v>
+        <v>30077</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>57429</v>
+        <v>56466</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08610823741450906</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06240420858458177</v>
+        <v>0.06250679318642864</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1193501952876774</v>
+        <v>0.1173482690759247</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>27</v>
@@ -5359,19 +5359,19 @@
         <v>31246</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>19818</v>
+        <v>20169</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>44878</v>
+        <v>43640</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.06812899029037962</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04321187045733522</v>
+        <v>0.04397723567550651</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09785136660012123</v>
+        <v>0.09515210576811604</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>65</v>
@@ -5380,19 +5380,19 @@
         <v>72680</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>55583</v>
+        <v>55293</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>91642</v>
+        <v>91735</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.07733431555097328</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05914229187009207</v>
+        <v>0.05883425986988004</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.09751052198683975</v>
+        <v>0.09761022762141872</v>
       </c>
     </row>
     <row r="30">
@@ -5484,19 +5484,19 @@
         <v>776016</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>729128</v>
+        <v>726190</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>829359</v>
+        <v>828010</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2269198334391714</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2132088753052808</v>
+        <v>0.212349759093919</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2425181464712733</v>
+        <v>0.2421234889103249</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>756</v>
@@ -5505,19 +5505,19 @@
         <v>822884</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>771089</v>
+        <v>770747</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>874778</v>
+        <v>869978</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2315224896611857</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2169496323112438</v>
+        <v>0.2168534779381235</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.246123184019221</v>
+        <v>0.2447725525935899</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1470</v>
@@ -5526,19 +5526,19 @@
         <v>1598901</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1522665</v>
+        <v>1526080</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1669809</v>
+        <v>1671313</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2292655276863808</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2183341217650665</v>
+        <v>0.2188237832601053</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2394330290574713</v>
+        <v>0.2396487777025973</v>
       </c>
     </row>
     <row r="32">
@@ -5555,19 +5555,19 @@
         <v>661453</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>614291</v>
+        <v>611138</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>714189</v>
+        <v>713326</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1934196928522093</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1796286718975711</v>
+        <v>0.1787068511001282</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.208840566430007</v>
+        <v>0.2085880572224471</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>635</v>
@@ -5576,19 +5576,19 @@
         <v>692908</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>644380</v>
+        <v>646218</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>742852</v>
+        <v>740951</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1949529984794817</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1812994609678781</v>
+        <v>0.1818166332815661</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2090051455849966</v>
+        <v>0.2084701571240619</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1252</v>
@@ -5597,19 +5597,19 @@
         <v>1354361</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1287264</v>
+        <v>1285365</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1422490</v>
+        <v>1422890</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1942011255761881</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1845800587290877</v>
+        <v>0.1843078050339887</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2039701664678093</v>
+        <v>0.2040274027381368</v>
       </c>
     </row>
     <row r="33">
@@ -5626,19 +5626,19 @@
         <v>273022</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>242036</v>
+        <v>242808</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>306559</v>
+        <v>310156</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.07983613806404204</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.07077517480597478</v>
+        <v>0.07100092608058525</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.08964296527647593</v>
+        <v>0.0906947775073078</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>268</v>
@@ -5647,19 +5647,19 @@
         <v>278975</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>246567</v>
+        <v>246440</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>315462</v>
+        <v>312295</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.07849089405480436</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.06937272395828967</v>
+        <v>0.06933701675038199</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.08875671781177001</v>
+        <v>0.08786560758238397</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>528</v>
@@ -5668,19 +5668,19 @@
         <v>551997</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>506047</v>
+        <v>510197</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>600597</v>
+        <v>603918</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.07915054892130549</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.07256179135553063</v>
+        <v>0.07315688465404825</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.08611929639723076</v>
+        <v>0.0865954347229287</v>
       </c>
     </row>
     <row r="34">
@@ -5697,19 +5697,19 @@
         <v>212618</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>185001</v>
+        <v>183915</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>244013</v>
+        <v>244996</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.06217298414698322</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.05409716286840647</v>
+        <v>0.05377975615579884</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.07135351031723458</v>
+        <v>0.0716408541417526</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>212</v>
@@ -5718,19 +5718,19 @@
         <v>219591</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>193057</v>
+        <v>190230</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>248127</v>
+        <v>247308</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.06178299818195972</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.05431740790784423</v>
+        <v>0.05352211327599606</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.06981174334947408</v>
+        <v>0.0695812686865238</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>408</v>
@@ -5739,19 +5739,19 @@
         <v>432209</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>392433</v>
+        <v>392376</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>474506</v>
+        <v>473819</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.06197423199376512</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.05627070890620568</v>
+        <v>0.05626254831305476</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.06803917630553649</v>
+        <v>0.0679406464759869</v>
       </c>
     </row>
     <row r="35">
@@ -5768,19 +5768,19 @@
         <v>373982</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>335217</v>
+        <v>335537</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>413362</v>
+        <v>412634</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1093584780128906</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.09802305659934815</v>
+        <v>0.09811658269369218</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1208738420654734</v>
+        <v>0.1206607751863022</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>371</v>
@@ -5789,19 +5789,19 @@
         <v>388951</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>350917</v>
+        <v>353201</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>429405</v>
+        <v>426647</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1094332636062176</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.09873220157863601</v>
+        <v>0.09937475529921293</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1208151101856904</v>
+        <v>0.1200390919386212</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>715</v>
@@ -5810,19 +5810,19 @@
         <v>762933</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>705917</v>
+        <v>702002</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>810935</v>
+        <v>811651</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1093965916862956</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1012210678085361</v>
+        <v>0.1006596362472024</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1162794988111517</v>
+        <v>0.1163822173420725</v>
       </c>
     </row>
     <row r="36">
@@ -5839,19 +5839,19 @@
         <v>324046</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>289988</v>
+        <v>293248</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>359765</v>
+        <v>360496</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.09475634244730509</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.08479733564613573</v>
+        <v>0.08575063471004259</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1052010442229412</v>
+        <v>0.1054148957331975</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>317</v>
@@ -5860,19 +5860,19 @@
         <v>341020</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>307606</v>
+        <v>307811</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>378081</v>
+        <v>380642</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.09594764568556828</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.08654636409260412</v>
+        <v>0.08660405774197411</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1063748638736008</v>
+        <v>0.1070956079628674</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>636</v>
@@ -5881,19 +5881,19 @@
         <v>665066</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>616258</v>
+        <v>613901</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>713725</v>
+        <v>713158</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.09536347733157263</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.08836491651378386</v>
+        <v>0.08802698748118308</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1023406339872031</v>
+        <v>0.1022592909388849</v>
       </c>
     </row>
     <row r="37">
@@ -5910,19 +5910,19 @@
         <v>505527</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>463610</v>
+        <v>463151</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>548396</v>
+        <v>549460</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1478244200685093</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.135567239002529</v>
+        <v>0.1354328908528697</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1603597943367124</v>
+        <v>0.160671120234077</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>479</v>
@@ -5931,19 +5931,19 @@
         <v>522656</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>481730</v>
+        <v>480723</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>569524</v>
+        <v>569848</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1470519295869762</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1355370799868775</v>
+        <v>0.1352536651778777</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.160238409964474</v>
+        <v>0.1603296184537022</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>951</v>
@@ -5952,19 +5952,19 @@
         <v>1028184</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>970311</v>
+        <v>970586</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1095434</v>
+        <v>1089364</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1474307286018537</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1391323819502244</v>
+        <v>0.1391718491120845</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1570736840445986</v>
+        <v>0.1562033384796754</v>
       </c>
     </row>
     <row r="38">
@@ -5981,19 +5981,19 @@
         <v>293117</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>258798</v>
+        <v>262509</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>330318</v>
+        <v>329109</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.0857121109688891</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.07567662221167845</v>
+        <v>0.07676200838438424</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.09659025995593012</v>
+        <v>0.09623681683162948</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>256</v>
@@ -6002,19 +6002,19 @@
         <v>287245</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>251996</v>
+        <v>255345</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>319167</v>
+        <v>324355</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.08081778074380645</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.07090020942492264</v>
+        <v>0.07184261076391776</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.08979922148017838</v>
+        <v>0.09125900397526526</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>536</v>
@@ -6023,19 +6023,19 @@
         <v>580362</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>534212</v>
+        <v>534032</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>626460</v>
+        <v>630545</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.0832177682026385</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.07660036956036127</v>
+        <v>0.07657460950077821</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.08982779435488313</v>
+        <v>0.09041353605485244</v>
       </c>
     </row>
     <row r="39">
@@ -6366,19 +6366,19 @@
         <v>133223</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>111815</v>
+        <v>112220</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>153487</v>
+        <v>153910</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1766070672531682</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1482280901074969</v>
+        <v>0.1487648807624071</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2034695053854519</v>
+        <v>0.2040314186229832</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>154</v>
@@ -6387,19 +6387,19 @@
         <v>177853</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>151863</v>
+        <v>151326</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>205756</v>
+        <v>203262</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1788080649376773</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1526780274366015</v>
+        <v>0.1521389031600255</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2068606489382001</v>
+        <v>0.2043533466216439</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>285</v>
@@ -6408,19 +6408,19 @@
         <v>311076</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>279188</v>
+        <v>277654</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>345360</v>
+        <v>344414</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.177858774535644</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1596267940108144</v>
+        <v>0.1587495408935616</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1974607377203747</v>
+        <v>0.1969198405456231</v>
       </c>
     </row>
     <row r="5">
@@ -6437,19 +6437,19 @@
         <v>104187</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>88010</v>
+        <v>86422</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>124065</v>
+        <v>125543</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.13811572802031</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1166703715978694</v>
+        <v>0.1145657094661516</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1644671132874712</v>
+        <v>0.1664259822025488</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>140</v>
@@ -6458,19 +6458,19 @@
         <v>160509</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>137308</v>
+        <v>135867</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>185472</v>
+        <v>187728</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1613709083721909</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1380451612410524</v>
+        <v>0.1365963354541322</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1864676263758873</v>
+        <v>0.1887353636965957</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>241</v>
@@ -6479,19 +6479,19 @@
         <v>264696</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>233278</v>
+        <v>234776</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>294756</v>
+        <v>296135</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1513409480224068</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1333774148109892</v>
+        <v>0.1342337632127654</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.168527644376097</v>
+        <v>0.1693158186271028</v>
       </c>
     </row>
     <row r="6">
@@ -6508,19 +6508,19 @@
         <v>76846</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>61297</v>
+        <v>61219</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>95840</v>
+        <v>94353</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1018707505124316</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08125810158395853</v>
+        <v>0.0811551313229928</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.127049869042108</v>
+        <v>0.125079011161659</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>81</v>
@@ -6529,19 +6529,19 @@
         <v>90607</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>72479</v>
+        <v>72210</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>111252</v>
+        <v>111238</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09109314342239667</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07286813681895413</v>
+        <v>0.0725975583330619</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1118491553071152</v>
+        <v>0.1118354255667929</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>160</v>
@@ -6550,19 +6550,19 @@
         <v>167453</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>144418</v>
+        <v>145488</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>193690</v>
+        <v>195831</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.09574152585344753</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08257128015823739</v>
+        <v>0.0831831410803491</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1107429668929218</v>
+        <v>0.1119671272861799</v>
       </c>
     </row>
     <row r="7">
@@ -6579,19 +6579,19 @@
         <v>81704</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>65547</v>
+        <v>66692</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>97915</v>
+        <v>99611</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1083112225252539</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0868929968116188</v>
+        <v>0.08841002421723301</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1298011409369391</v>
+        <v>0.132048832442135</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>85</v>
@@ -6600,19 +6600,19 @@
         <v>84793</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>68588</v>
+        <v>68208</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>102953</v>
+        <v>104110</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08524773744000261</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06895654894057729</v>
+        <v>0.06857463278425055</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1035056853090673</v>
+        <v>0.1046685438429715</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>171</v>
@@ -6621,19 +6621,19 @@
         <v>166497</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>143298</v>
+        <v>145528</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>193312</v>
+        <v>188788</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0951950196125185</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08193127778618094</v>
+        <v>0.08320632002692645</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1105264462954799</v>
+        <v>0.1079400265772652</v>
       </c>
     </row>
     <row r="8">
@@ -6650,19 +6650,19 @@
         <v>81576</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>65842</v>
+        <v>65749</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>102052</v>
+        <v>100102</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1081406719211535</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08728385392464097</v>
+        <v>0.08716052832019665</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.135285685020637</v>
+        <v>0.1326996445033566</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>105</v>
@@ -6671,19 +6671,19 @@
         <v>118121</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>99693</v>
+        <v>96023</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>143505</v>
+        <v>139540</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1187552063690694</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.100228643740575</v>
+        <v>0.09653895089572208</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1442751624638544</v>
+        <v>0.1402894008656</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>190</v>
@@ -6692,19 +6692,19 @@
         <v>199697</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>174186</v>
+        <v>173218</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>227487</v>
+        <v>226550</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1141771571760257</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.09959137572586606</v>
+        <v>0.09903776538721183</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1300663389841556</v>
+        <v>0.1295306419308269</v>
       </c>
     </row>
     <row r="9">
@@ -6721,19 +6721,19 @@
         <v>73368</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>59231</v>
+        <v>58782</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>89990</v>
+        <v>88610</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.09725986901504656</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0785192925130736</v>
+        <v>0.07792451321079608</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1192951131268158</v>
+        <v>0.1174656911057101</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>91</v>
@@ -6742,19 +6742,19 @@
         <v>99589</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>82179</v>
+        <v>81102</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>121942</v>
+        <v>120806</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1001232528466492</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.08262004272583967</v>
+        <v>0.08153718895272365</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.12259666038263</v>
+        <v>0.1214543456051479</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>173</v>
@@ -6763,19 +6763,19 @@
         <v>172956</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>147708</v>
+        <v>150118</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>198743</v>
+        <v>198083</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.09888827526906771</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.08445223053791748</v>
+        <v>0.08583017877408942</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1136319806736215</v>
+        <v>0.1132546252168243</v>
       </c>
     </row>
     <row r="10">
@@ -6792,19 +6792,19 @@
         <v>122411</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>104154</v>
+        <v>104779</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>144447</v>
+        <v>145051</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1622745678505265</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1380716479083505</v>
+        <v>0.138900053388906</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1914863628394593</v>
+        <v>0.1922862798832879</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>157</v>
@@ -6813,19 +6813,19 @@
         <v>179261</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>154113</v>
+        <v>154446</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>204917</v>
+        <v>205997</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1802236812938827</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1549401032221685</v>
+        <v>0.1552753442860026</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2060168815362569</v>
+        <v>0.2071028469435561</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>277</v>
@@ -6834,19 +6834,19 @@
         <v>301673</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>272745</v>
+        <v>271208</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>336260</v>
+        <v>334150</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1724822278445192</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1559428499735144</v>
+        <v>0.1550637682741443</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1922574123951734</v>
+        <v>0.1910515143477004</v>
       </c>
     </row>
     <row r="11">
@@ -6863,19 +6863,19 @@
         <v>81032</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>65198</v>
+        <v>64860</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>98775</v>
+        <v>100899</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1074201229021097</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0864294802232082</v>
+        <v>0.08598227888318101</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1309411613139206</v>
+        <v>0.1337561623902136</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>79</v>
@@ -6884,19 +6884,19 @@
         <v>83927</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>67041</v>
+        <v>67499</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>103480</v>
+        <v>103116</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.08437800531813125</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06740050807663241</v>
+        <v>0.06786100335321681</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.104035052893828</v>
+        <v>0.1036700245661674</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>157</v>
@@ -6905,19 +6905,19 @@
         <v>164959</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>144242</v>
+        <v>141241</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>191675</v>
+        <v>192610</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0943160716863705</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08247092554499896</v>
+        <v>0.08075497457781122</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1095907550484042</v>
+        <v>0.110125591503685</v>
       </c>
     </row>
     <row r="12">
@@ -7009,19 +7009,19 @@
         <v>504241</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>462985</v>
+        <v>465827</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>545656</v>
+        <v>542670</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2428456870396957</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2229766567115074</v>
+        <v>0.2243452151821084</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2627912262920403</v>
+        <v>0.2613532276652554</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>481</v>
@@ -7030,19 +7030,19 @@
         <v>519219</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>479733</v>
+        <v>477689</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>562749</v>
+        <v>558461</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2611370875556366</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2412779752078644</v>
+        <v>0.2402499510359832</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2830299851582034</v>
+        <v>0.2808734705788673</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>967</v>
@@ -7051,19 +7051,19 @@
         <v>1023460</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>972899</v>
+        <v>963884</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1081692</v>
+        <v>1077069</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2517931928267652</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2393540041611874</v>
+        <v>0.2371363126359602</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2661194606478992</v>
+        <v>0.2649822299331908</v>
       </c>
     </row>
     <row r="14">
@@ -7080,19 +7080,19 @@
         <v>400128</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>362104</v>
+        <v>363896</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>439631</v>
+        <v>437647</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1927042679436789</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1743915745271389</v>
+        <v>0.1752544931139365</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2117291815597744</v>
+        <v>0.2107735756627242</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>366</v>
@@ -7101,19 +7101,19 @@
         <v>386096</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>349299</v>
+        <v>351505</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>419593</v>
+        <v>421679</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1941838755818842</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1756770830313193</v>
+        <v>0.1767867083014062</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2110311295337221</v>
+        <v>0.2120802295508115</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>717</v>
@@ -7122,19 +7122,19 @@
         <v>786224</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>736265</v>
+        <v>736776</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>838434</v>
+        <v>842397</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1934280396359501</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1811369622161621</v>
+        <v>0.1812626673292762</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2062727351325246</v>
+        <v>0.2072478018419306</v>
       </c>
     </row>
     <row r="15">
@@ -7151,19 +7151,19 @@
         <v>143439</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>121754</v>
+        <v>119698</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>167775</v>
+        <v>167757</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.0690813220880909</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.05863729351391563</v>
+        <v>0.05764749799193883</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.08080152276682878</v>
+        <v>0.08079262409653658</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>145</v>
@@ -7172,19 +7172,19 @@
         <v>145707</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>121836</v>
+        <v>125410</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>167324</v>
+        <v>171259</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.07328211343578232</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.06127656327494311</v>
+        <v>0.06307386512879229</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.08415436008857427</v>
+        <v>0.08613352293844673</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>284</v>
@@ -7193,19 +7193,19 @@
         <v>289146</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>257232</v>
+        <v>256240</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>323851</v>
+        <v>323288</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.07113620054646723</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.06328451310842531</v>
+        <v>0.06304062834006534</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.07967422695258074</v>
+        <v>0.07953590715482008</v>
       </c>
     </row>
     <row r="16">
@@ -7222,19 +7222,19 @@
         <v>99063</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>81203</v>
+        <v>81315</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>120834</v>
+        <v>119309</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0477094738754703</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0391078086084127</v>
+        <v>0.0391619990542719</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05819453972121021</v>
+        <v>0.05746011073711273</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>120</v>
@@ -7243,19 +7243,19 @@
         <v>117297</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>99838</v>
+        <v>98065</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>141245</v>
+        <v>141876</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05899360825660657</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05021270889135704</v>
+        <v>0.04932080261177603</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07103812209548438</v>
+        <v>0.07135549296439966</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>217</v>
@@ -7264,19 +7264,19 @@
         <v>216360</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>191253</v>
+        <v>188042</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>250786</v>
+        <v>242747</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05322927306139357</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04705246584621381</v>
+        <v>0.046262359936128</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06169864892573493</v>
+        <v>0.05972086635587396</v>
       </c>
     </row>
     <row r="17">
@@ -7293,19 +7293,19 @@
         <v>218390</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>191737</v>
+        <v>188946</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>248075</v>
+        <v>246751</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1051780983281816</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09234166490437083</v>
+        <v>0.09099755504811555</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1194742690922961</v>
+        <v>0.1188368011590767</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>190</v>
@@ -7314,19 +7314,19 @@
         <v>201048</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>174280</v>
+        <v>176196</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>230747</v>
+        <v>226980</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1011153380240774</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08765256121744845</v>
+        <v>0.08861634647594972</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.116052629581481</v>
+        <v>0.1141577580083414</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>394</v>
@@ -7335,19 +7335,19 @@
         <v>419438</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>377424</v>
+        <v>381238</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>458512</v>
+        <v>460871</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1031907397713139</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09285447712234042</v>
+        <v>0.09379263264011645</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1128037882397206</v>
+        <v>0.1133842382624979</v>
       </c>
     </row>
     <row r="18">
@@ -7364,19 +7364,19 @@
         <v>198919</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>175074</v>
+        <v>174849</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>227869</v>
+        <v>227450</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.09580050800746398</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.08431693255727261</v>
+        <v>0.08420838429176836</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.109742924131996</v>
+        <v>0.1095413757872364</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>185</v>
@@ -7385,19 +7385,19 @@
         <v>181426</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>156683</v>
+        <v>158189</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>208366</v>
+        <v>208572</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.09124663075175582</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.07880237052028537</v>
+        <v>0.07956003328629768</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1047962538228166</v>
+        <v>0.1048997686687282</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>391</v>
@@ -7406,19 +7406,19 @@
         <v>380344</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>346170</v>
+        <v>347757</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>415555</v>
+        <v>420946</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.09357291241884062</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.08516533754484533</v>
+        <v>0.08555565838059827</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1022355558593671</v>
+        <v>0.1035618789595195</v>
       </c>
     </row>
     <row r="19">
@@ -7435,19 +7435,19 @@
         <v>332820</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>299356</v>
+        <v>299442</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>367646</v>
+        <v>369224</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.160288078896246</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1441718526713772</v>
+        <v>0.1442130618065979</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1770606641901021</v>
+        <v>0.17782052475902</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>273</v>
@@ -7456,19 +7456,19 @@
         <v>288240</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>256934</v>
+        <v>258414</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>323239</v>
+        <v>322338</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1449679818686847</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1292228892838549</v>
+        <v>0.129967436717175</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1625705636618145</v>
+        <v>0.1621174692973546</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>584</v>
@@ -7477,19 +7477,19 @@
         <v>621060</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>575769</v>
+        <v>575109</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>669115</v>
+        <v>665718</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1527940296192041</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1416514511540906</v>
+        <v>0.1414892977626921</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1646168032210376</v>
+        <v>0.1637809443978496</v>
       </c>
     </row>
     <row r="20">
@@ -7506,19 +7506,19 @@
         <v>179384</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>154127</v>
+        <v>153903</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>208184</v>
+        <v>206498</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.08639256382117266</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07422867375034077</v>
+        <v>0.07412080037795038</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1002625360116788</v>
+        <v>0.09945064591315605</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>148</v>
@@ -7527,19 +7527,19 @@
         <v>149268</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>128439</v>
+        <v>125856</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>175005</v>
+        <v>170566</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07507336452557246</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06459742829386159</v>
+        <v>0.06329806820576779</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08801724630808443</v>
+        <v>0.08578502119664112</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>306</v>
@@ -7548,19 +7548,19 @@
         <v>328653</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>290858</v>
+        <v>291369</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>365789</v>
+        <v>363225</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.08085561212006524</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.071557255042034</v>
+        <v>0.07168301975511825</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08999206965524519</v>
+        <v>0.08936117573449547</v>
       </c>
     </row>
     <row r="21">
@@ -7652,19 +7652,19 @@
         <v>134769</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>113950</v>
+        <v>114226</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>156814</v>
+        <v>156693</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2464305795609874</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2083607874660059</v>
+        <v>0.2088659776196208</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2867403284608428</v>
+        <v>0.286519135459773</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>114</v>
@@ -7673,19 +7673,19 @@
         <v>123072</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>104397</v>
+        <v>103731</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>142847</v>
+        <v>143939</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2241183817982725</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1901097020648144</v>
+        <v>0.1888975597379957</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2601291760200649</v>
+        <v>0.2621176025602229</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>241</v>
@@ -7694,19 +7694,19 @@
         <v>257842</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>228657</v>
+        <v>227360</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>288154</v>
+        <v>286585</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2352515364872102</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2086230961268698</v>
+        <v>0.2074401370099382</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2629074640679149</v>
+        <v>0.2614760173023043</v>
       </c>
     </row>
     <row r="23">
@@ -7723,19 +7723,19 @@
         <v>150134</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>129709</v>
+        <v>126998</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>174065</v>
+        <v>173374</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.274525893920923</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2371769006606688</v>
+        <v>0.2322208328959402</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3182840903403385</v>
+        <v>0.3170197336671646</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>140</v>
@@ -7744,19 +7744,19 @@
         <v>144689</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>124176</v>
+        <v>123180</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>165473</v>
+        <v>164591</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2634827234487706</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2261280479212359</v>
+        <v>0.224313986080054</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3013313551059186</v>
+        <v>0.2997244145338615</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>266</v>
@@ -7765,19 +7765,19 @@
         <v>294824</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>264475</v>
+        <v>267561</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>325172</v>
+        <v>328206</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2689929527157517</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2413034439371873</v>
+        <v>0.2441190315381596</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2966829180112616</v>
+        <v>0.299450315336116</v>
       </c>
     </row>
     <row r="24">
@@ -7794,19 +7794,19 @@
         <v>42838</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>31520</v>
+        <v>30500</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>56623</v>
+        <v>56247</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07833021854569559</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05763625067113061</v>
+        <v>0.05577015442069398</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1035364333314874</v>
+        <v>0.1028493888439339</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>37</v>
@@ -7815,19 +7815,19 @@
         <v>36801</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>26698</v>
+        <v>25178</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>49164</v>
+        <v>49230</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.06701648522491074</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04861846812069884</v>
+        <v>0.04584912523868253</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.08952898706424925</v>
+        <v>0.089648675713921</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>78</v>
@@ -7836,19 +7836,19 @@
         <v>79639</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>62870</v>
+        <v>64703</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>96355</v>
+        <v>96574</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0726617176896467</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05736142611969482</v>
+        <v>0.05903431736851425</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08791286578234701</v>
+        <v>0.0881126864338557</v>
       </c>
     </row>
     <row r="25">
@@ -7865,19 +7865,19 @@
         <v>26004</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>16692</v>
+        <v>17295</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>37343</v>
+        <v>37018</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.047548353406639</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03052263040459919</v>
+        <v>0.03162519185416948</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06828290816271421</v>
+        <v>0.06768935409559124</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>15</v>
@@ -7886,19 +7886,19 @@
         <v>13508</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>7877</v>
+        <v>7463</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>21799</v>
+        <v>21520</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02459817775853719</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01434377393493405</v>
+        <v>0.01359013222102736</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03969715352574685</v>
+        <v>0.03918888159114695</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>40</v>
@@ -7907,19 +7907,19 @@
         <v>39511</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>28818</v>
+        <v>29262</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>52389</v>
+        <v>53827</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03604966534151206</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02629315748765418</v>
+        <v>0.02669779750701912</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04779895136398383</v>
+        <v>0.04911118753790003</v>
       </c>
     </row>
     <row r="26">
@@ -7936,19 +7936,19 @@
         <v>68168</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>52706</v>
+        <v>53655</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>86781</v>
+        <v>85077</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1246483650570026</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.09637384179584144</v>
+        <v>0.09810938825968159</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1586815710288539</v>
+        <v>0.1555662252759104</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>61</v>
@@ -7957,19 +7957,19 @@
         <v>65628</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>51233</v>
+        <v>51494</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>82587</v>
+        <v>83258</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1195110319359057</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.09329608870744534</v>
+        <v>0.09377178423903286</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1503928705203071</v>
+        <v>0.1516156529353872</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>124</v>
@@ -7978,19 +7978,19 @@
         <v>133797</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>113068</v>
+        <v>113526</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>157430</v>
+        <v>160684</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1220744156479913</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1031616371342349</v>
+        <v>0.1035791420543379</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1436366119894313</v>
+        <v>0.1466057530934144</v>
       </c>
     </row>
     <row r="27">
@@ -8007,19 +8007,19 @@
         <v>46279</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>34291</v>
+        <v>34235</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>60632</v>
+        <v>60767</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.08462200136145732</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.06270203763020375</v>
+        <v>0.06259938774206518</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1108670856181596</v>
+        <v>0.1111148948517636</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>56</v>
@@ -8028,19 +8028,19 @@
         <v>55295</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>41672</v>
+        <v>41640</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>69091</v>
+        <v>69019</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1006932347276769</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.07588512119338732</v>
+        <v>0.07582798847346935</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1258173349143462</v>
+        <v>0.1256859340260208</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>103</v>
@@ -8049,19 +8049,19 @@
         <v>101573</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>81396</v>
+        <v>85633</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>122341</v>
+        <v>125530</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.09267414449681076</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.07426489054593083</v>
+        <v>0.07813076829800525</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1116219691526717</v>
+        <v>0.1145320443596408</v>
       </c>
     </row>
     <row r="28">
@@ -8078,19 +8078,19 @@
         <v>47344</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>35190</v>
+        <v>35219</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>62357</v>
+        <v>62221</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0865707227517942</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.06434627953902357</v>
+        <v>0.06439951883264224</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1140213908894945</v>
+        <v>0.1137738497876122</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>54</v>
@@ -8099,19 +8099,19 @@
         <v>55583</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>43352</v>
+        <v>42685</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>71069</v>
+        <v>69842</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1012179481048534</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07894548728203463</v>
+        <v>0.07773119985877326</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1294181418564194</v>
+        <v>0.127184633465081</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>98</v>
@@ -8120,19 +8120,19 @@
         <v>102927</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>84620</v>
+        <v>83010</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>123507</v>
+        <v>122565</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.09390939753742167</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0772063458126533</v>
+        <v>0.07573697113168933</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1126857583184675</v>
+        <v>0.1118261686580795</v>
       </c>
     </row>
     <row r="29">
@@ -8149,19 +8149,19 @@
         <v>31350</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>21188</v>
+        <v>22486</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>44503</v>
+        <v>45523</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05732386539550088</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03874247493838747</v>
+        <v>0.04111731158750954</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.08137548254210657</v>
+        <v>0.08323952433458316</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>49</v>
@@ -8170,19 +8170,19 @@
         <v>54564</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>41224</v>
+        <v>41387</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>70220</v>
+        <v>71994</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.099362017001073</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07507032028901717</v>
+        <v>0.07536660152901115</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1278727494390878</v>
+        <v>0.1311023799925793</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>77</v>
@@ -8191,19 +8191,19 @@
         <v>85913</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>68541</v>
+        <v>67680</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>106121</v>
+        <v>105096</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0783861700836556</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.06253574747065481</v>
+        <v>0.0617502910211355</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.09682372776556754</v>
+        <v>0.09588793261234228</v>
       </c>
     </row>
     <row r="30">
@@ -8295,19 +8295,19 @@
         <v>772234</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>726487</v>
+        <v>724713</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>821955</v>
+        <v>818795</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2286326046672112</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2150886979417969</v>
+        <v>0.2145633983166075</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2433534540067038</v>
+        <v>0.2424179483709198</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>749</v>
@@ -8316,19 +8316,19 @@
         <v>820144</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>767037</v>
+        <v>768993</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>875238</v>
+        <v>869736</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2321974055202355</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.217161663291244</v>
+        <v>0.2177154388583366</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2477953261211917</v>
+        <v>0.246237613949072</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1493</v>
@@ -8337,19 +8337,19 @@
         <v>1592378</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1526470</v>
+        <v>1518969</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1658679</v>
+        <v>1661106</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2304548547534881</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2209164444317135</v>
+        <v>0.2198307655022748</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2400501275789788</v>
+        <v>0.2404013661308348</v>
       </c>
     </row>
     <row r="32">
@@ -8366,19 +8366,19 @@
         <v>654450</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>606128</v>
+        <v>609680</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>703112</v>
+        <v>702233</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1937607614814944</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1794543345090226</v>
+        <v>0.180505778975453</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2081680043890395</v>
+        <v>0.2079078769854497</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>646</v>
@@ -8387,19 +8387,19 @@
         <v>691294</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>643501</v>
+        <v>643484</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>737700</v>
+        <v>741128</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1957175362477998</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1821866420267954</v>
+        <v>0.1821818387235594</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2088558175153511</v>
+        <v>0.2098265379449849</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1224</v>
@@ -8408,19 +8408,19 @@
         <v>1345744</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1279782</v>
+        <v>1283593</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1415659</v>
+        <v>1418841</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1947610229641799</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1852148330483933</v>
+        <v>0.1857663453918094</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2048794569457002</v>
+        <v>0.2053398568911514</v>
       </c>
     </row>
     <row r="33">
@@ -8437,19 +8437,19 @@
         <v>263123</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>236213</v>
+        <v>234515</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>295479</v>
+        <v>293891</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.07790194506242434</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.06993470002304922</v>
+        <v>0.06943200141679091</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.08748134851598499</v>
+        <v>0.08701120700285132</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>263</v>
@@ -8458,19 +8458,19 @@
         <v>273115</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>242726</v>
+        <v>241822</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>306159</v>
+        <v>307587</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.07732367813214081</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.06872005427496844</v>
+        <v>0.06846420267482162</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.08667904215027246</v>
+        <v>0.08708340463062297</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>522</v>
@@ -8479,19 +8479,19 @@
         <v>536238</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>492462</v>
+        <v>488934</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>582382</v>
+        <v>579344</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.07760634735387176</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.07127090522716188</v>
+        <v>0.07076029992813636</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.08428442842630857</v>
+        <v>0.08384484305136</v>
       </c>
     </row>
     <row r="34">
@@ -8508,19 +8508,19 @@
         <v>206771</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>180710</v>
+        <v>180830</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>237249</v>
+        <v>234640</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.06121799407573907</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.05350206477685328</v>
+        <v>0.05353767017417175</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.07024165901645411</v>
+        <v>0.06946919199999059</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>220</v>
@@ -8529,19 +8529,19 @@
         <v>215597</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>188729</v>
+        <v>189103</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>245625</v>
+        <v>242894</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.0610394212396208</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.05343253445051187</v>
+        <v>0.05353836578684681</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.06954073753455492</v>
+        <v>0.0687677152324444</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>428</v>
@@ -8550,19 +8550,19 @@
         <v>422368</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>382370</v>
+        <v>384269</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>461842</v>
+        <v>463481</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.06112671145451012</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.05533793386451796</v>
+        <v>0.05561276969601222</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.0668395091046874</v>
+        <v>0.06707672848283161</v>
       </c>
     </row>
     <row r="35">
@@ -8579,19 +8579,19 @@
         <v>368134</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>333330</v>
+        <v>335663</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>406498</v>
+        <v>408562</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1089922742119652</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.09868798193552726</v>
+        <v>0.09937871114542876</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1203505928616376</v>
+        <v>0.120961490538752</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>356</v>
@@ -8600,19 +8600,19 @@
         <v>384797</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>347723</v>
+        <v>350622</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>429199</v>
+        <v>423829</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1089428312184592</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.09844663625463627</v>
+        <v>0.09926721441355514</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1215137339146147</v>
+        <v>0.1199934221971741</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>708</v>
@@ -8621,19 +8621,19 @@
         <v>752931</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>702694</v>
+        <v>696812</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>804550</v>
+        <v>803915</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1089670000093107</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1016964662231247</v>
+        <v>0.1008452398234214</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1164375094924812</v>
+        <v>0.1163455755702949</v>
       </c>
     </row>
     <row r="36">
@@ -8650,19 +8650,19 @@
         <v>318565</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>285545</v>
+        <v>287600</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>351210</v>
+        <v>353398</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.09431647183627208</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.08454036886817606</v>
+        <v>0.08514866067078888</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1039814333459245</v>
+        <v>0.1046293117173789</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>332</v>
@@ -8671,19 +8671,19 @@
         <v>336309</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>300688</v>
+        <v>304374</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>371122</v>
+        <v>369588</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.09521501558503315</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.08512998208648553</v>
+        <v>0.08617366450772268</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1050711012213928</v>
+        <v>0.1046369954459615</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>667</v>
@@ -8692,19 +8692,19 @@
         <v>654874</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>607460</v>
+        <v>605114</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>703292</v>
+        <v>705904</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.09477578821640432</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.08791385435354392</v>
+        <v>0.08757432898788646</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1017829979609625</v>
+        <v>0.1021610847572017</v>
       </c>
     </row>
     <row r="37">
@@ -8721,19 +8721,19 @@
         <v>502575</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>461770</v>
+        <v>464328</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>545469</v>
+        <v>546595</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1487958062377235</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1367147339803051</v>
+        <v>0.1374720062307364</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.161495080505867</v>
+        <v>0.1618284852279728</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>484</v>
@@ -8742,19 +8742,19 @@
         <v>523084</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>483336</v>
+        <v>484392</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>569491</v>
+        <v>570155</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1480943170670583</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1368409026767525</v>
+        <v>0.1371399682586301</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1612330593827825</v>
+        <v>0.1614210014016298</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>959</v>
@@ -8763,19 +8763,19 @@
         <v>1025659</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>969623</v>
+        <v>964723</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1090826</v>
+        <v>1089811</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1484372199507272</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1403274616894772</v>
+        <v>0.1396182643353336</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.157868318958628</v>
+        <v>0.1577215308560398</v>
       </c>
     </row>
     <row r="38">
@@ -8792,19 +8792,19 @@
         <v>291766</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>259157</v>
+        <v>259899</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>325259</v>
+        <v>329784</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.08638214242717029</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.07672770514671369</v>
+        <v>0.07694744562555696</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.0962983588016602</v>
+        <v>0.09763791636230311</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>276</v>
@@ -8813,19 +8813,19 @@
         <v>287759</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>253115</v>
+        <v>257596</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>321253</v>
+        <v>323533</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.08146979498965257</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.07166145202559877</v>
+        <v>0.07292985910579347</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.09095252947559609</v>
+        <v>0.09159791733443028</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>540</v>
@@ -8834,19 +8834,19 @@
         <v>579525</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>531732</v>
+        <v>537849</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>627881</v>
+        <v>631173</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.08387105529750781</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.07695419072085551</v>
+        <v>0.07783954712400035</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.09086929579345557</v>
+        <v>0.09134565220680983</v>
       </c>
     </row>
     <row r="39">
@@ -9177,19 +9177,19 @@
         <v>131168</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>112708</v>
+        <v>112135</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>152090</v>
+        <v>149370</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2267262923337402</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1948183353282094</v>
+        <v>0.1938271031801886</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2628912210956754</v>
+        <v>0.2581887478108778</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>361</v>
@@ -9198,19 +9198,19 @@
         <v>236532</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>215686</v>
+        <v>217001</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>258020</v>
+        <v>258110</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.2877379521384302</v>
+        <v>0.2877379521384301</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2623793417871399</v>
+        <v>0.2639789491643078</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3138780477136855</v>
+        <v>0.3139882722371466</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>515</v>
@@ -9219,19 +9219,19 @@
         <v>367699</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>338244</v>
+        <v>340530</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>398658</v>
+        <v>394934</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.2625359926667243</v>
+        <v>0.2625359926667242</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2415052516395733</v>
+        <v>0.2431372742188474</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.284640352529019</v>
+        <v>0.2819812616840512</v>
       </c>
     </row>
     <row r="5">
@@ -9248,19 +9248,19 @@
         <v>104066</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>87491</v>
+        <v>86409</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>125271</v>
+        <v>123687</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1798804795815741</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1512298619404028</v>
+        <v>0.1493598471281568</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2165339835302</v>
+        <v>0.2137955206909311</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>178</v>
@@ -9269,19 +9269,19 @@
         <v>128198</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>110232</v>
+        <v>111650</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>146029</v>
+        <v>146772</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1559519362194452</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1340956512957404</v>
+        <v>0.1358204327577797</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1776424967524083</v>
+        <v>0.1785468025897248</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>276</v>
@@ -9290,19 +9290,19 @@
         <v>232264</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>207273</v>
+        <v>207383</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>258813</v>
+        <v>259266</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.165836049878372</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1479923001926279</v>
+        <v>0.1480705416662197</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1847914450966173</v>
+        <v>0.1851150491769813</v>
       </c>
     </row>
     <row r="6">
@@ -9319,19 +9319,19 @@
         <v>64825</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>53339</v>
+        <v>53133</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>77500</v>
+        <v>80260</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1120512456081829</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09219771005310334</v>
+        <v>0.09184211505626765</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1339604342261575</v>
+        <v>0.1387307276706738</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>157</v>
@@ -9340,19 +9340,19 @@
         <v>64877</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>55742</v>
+        <v>55348</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>75863</v>
+        <v>75640</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.07892182217302177</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06780977875418978</v>
+        <v>0.06733050004007961</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.09228690738521431</v>
+        <v>0.09201540632749769</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>274</v>
@@ -9361,19 +9361,19 @@
         <v>129702</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>114343</v>
+        <v>114016</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>147017</v>
+        <v>146489</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.09260652423499935</v>
+        <v>0.09260652423499932</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08164080371974528</v>
+        <v>0.08140736469348193</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1049696072370891</v>
+        <v>0.1045923666548089</v>
       </c>
     </row>
     <row r="7">
@@ -9390,19 +9390,19 @@
         <v>11052</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6878</v>
+        <v>6743</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18067</v>
+        <v>17062</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01910409933326692</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0118883420089794</v>
+        <v>0.01165505988644843</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03122852072041683</v>
+        <v>0.02949213329214359</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>61</v>
@@ -9411,19 +9411,19 @@
         <v>24067</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>18892</v>
+        <v>19275</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>31405</v>
+        <v>30671</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02927690716549592</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02298185654449451</v>
+        <v>0.02344774305079069</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03820426970961632</v>
+        <v>0.03731116943593173</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>79</v>
@@ -9432,19 +9432,19 @@
         <v>35119</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>28062</v>
+        <v>27718</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>44212</v>
+        <v>44468</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.02507484658360071</v>
+        <v>0.0250748465836007</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02003596201954791</v>
+        <v>0.019790608240968</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03156703421379144</v>
+        <v>0.03174986930539793</v>
       </c>
     </row>
     <row r="8">
@@ -9461,19 +9461,19 @@
         <v>71519</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>56604</v>
+        <v>56124</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>89752</v>
+        <v>88296</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1236215696973713</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09784205501504835</v>
+        <v>0.09701121795027068</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.15513824492342</v>
+        <v>0.1526210238486581</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>208</v>
@@ -9482,19 +9482,19 @@
         <v>99339</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>84716</v>
+        <v>85588</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>113236</v>
+        <v>112869</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.120844648927731</v>
+        <v>0.1208446489277309</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1030563377986539</v>
+        <v>0.1041171191522863</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1377499766678343</v>
+        <v>0.1373038881368865</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>281</v>
@@ -9503,19 +9503,19 @@
         <v>170858</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>152137</v>
+        <v>151104</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>194641</v>
+        <v>194841</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1219917058168018</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1086254722757823</v>
+        <v>0.1078877728400877</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1389728770659429</v>
+        <v>0.1391155489797722</v>
       </c>
     </row>
     <row r="9">
@@ -9532,19 +9532,19 @@
         <v>71046</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>59132</v>
+        <v>58238</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>86738</v>
+        <v>85303</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1228053839251373</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1022105024597271</v>
+        <v>0.1006652472744306</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1499286066345168</v>
+        <v>0.1474480006286228</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>160</v>
@@ -9553,19 +9553,19 @@
         <v>85235</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>72934</v>
+        <v>73270</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>100754</v>
+        <v>98897</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1036868961702558</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.08872395017796723</v>
+        <v>0.08913225772595008</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1225661361377691</v>
+        <v>0.1203070119662314</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>262</v>
@@ -9574,19 +9574,19 @@
         <v>156281</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>139012</v>
+        <v>139349</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>174892</v>
+        <v>176260</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.111584130159648</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09925426698081576</v>
+        <v>0.09949503936888184</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.12487238933288</v>
+        <v>0.125848743530106</v>
       </c>
     </row>
     <row r="10">
@@ -9603,19 +9603,19 @@
         <v>55607</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>42954</v>
+        <v>42757</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>72828</v>
+        <v>71062</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.09611787795899639</v>
+        <v>0.0961178779589964</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07424777446121668</v>
+        <v>0.07390615274500235</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1258848062358208</v>
+        <v>0.1228325758565569</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>187</v>
@@ -9624,19 +9624,19 @@
         <v>121620</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>105468</v>
+        <v>104014</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>139462</v>
+        <v>138293</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1479490215193781</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1283004601494727</v>
+        <v>0.1265323385470461</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1696544321165765</v>
+        <v>0.1682317695324705</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>241</v>
@@ -9645,19 +9645,19 @@
         <v>177227</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>156538</v>
+        <v>156848</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>200826</v>
+        <v>201563</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.1265392388063286</v>
+        <v>0.1265392388063285</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1117673112994934</v>
+        <v>0.1119885907045281</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1433893396019663</v>
+        <v>0.1439152436430731</v>
       </c>
     </row>
     <row r="11">
@@ -9674,19 +9674,19 @@
         <v>69246</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>54456</v>
+        <v>54289</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>86493</v>
+        <v>87263</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.119693051561731</v>
+        <v>0.1196930515617309</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0941291205359592</v>
+        <v>0.09383895131522886</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1495047186317853</v>
+        <v>0.1508354867062775</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>115</v>
@@ -9695,19 +9695,19 @@
         <v>62171</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>51022</v>
+        <v>50637</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>73934</v>
+        <v>74743</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.07563081568624212</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06206772367049483</v>
+        <v>0.06159956971906479</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08993984738367967</v>
+        <v>0.09092433062479292</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>190</v>
@@ -9716,19 +9716,19 @@
         <v>131417</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>112069</v>
+        <v>112878</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>153383</v>
+        <v>150085</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.09383151185352549</v>
+        <v>0.09383151185352548</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08001706769520636</v>
+        <v>0.08059443037468257</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1095148658573054</v>
+        <v>0.1071600227903347</v>
       </c>
     </row>
     <row r="12">
@@ -9820,19 +9820,19 @@
         <v>520980</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>475026</v>
+        <v>477519</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>562980</v>
+        <v>565380</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2335638670997632</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.21296187155973</v>
+        <v>0.2140796233159213</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2523932810171735</v>
+        <v>0.2534694823207609</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>555</v>
@@ -9841,19 +9841,19 @@
         <v>477283</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>441753</v>
+        <v>443346</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>515804</v>
+        <v>512236</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2198052508931285</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.20344249274537</v>
+        <v>0.2041757976771864</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2375455311322235</v>
+        <v>0.2359023487112716</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1025</v>
@@ -9862,19 +9862,19 @@
         <v>998263</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>943779</v>
+        <v>940320</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1057494</v>
+        <v>1052670</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2267770354944319</v>
+        <v>0.226777035494432</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2143997673887639</v>
+        <v>0.2136139504310382</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2402325633853734</v>
+        <v>0.2391367718412838</v>
       </c>
     </row>
     <row r="14">
@@ -9891,19 +9891,19 @@
         <v>444676</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>395341</v>
+        <v>404527</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>489160</v>
+        <v>492371</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1993558541227184</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1772380776681135</v>
+        <v>0.181356127137545</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2192985091882029</v>
+        <v>0.2207383531021451</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>535</v>
@@ -9912,19 +9912,19 @@
         <v>443246</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>407440</v>
+        <v>410856</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>480268</v>
+        <v>478688</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2041297758565411</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1876399945051776</v>
+        <v>0.1892132416271458</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2211799208678735</v>
+        <v>0.2204523488594026</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>885</v>
@@ -9933,19 +9933,19 @@
         <v>887922</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>836805</v>
+        <v>830876</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>949011</v>
+        <v>945413</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2017107277828225</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1900983680843251</v>
+        <v>0.188751316580077</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2155884061151524</v>
+        <v>0.2147708804766518</v>
       </c>
     </row>
     <row r="15">
@@ -9962,19 +9962,19 @@
         <v>174850</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>152462</v>
+        <v>151192</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>197542</v>
+        <v>199873</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.0783880854807774</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.06835109538659673</v>
+        <v>0.06778196035705303</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.08856134844304622</v>
+        <v>0.08960619375370514</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>227</v>
@@ -9983,19 +9983,19 @@
         <v>148583</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>128788</v>
+        <v>128662</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>169497</v>
+        <v>170316</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.06842752527954286</v>
+        <v>0.06842752527954284</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.05931147390755668</v>
+        <v>0.05925310685622842</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.07805929630985847</v>
+        <v>0.07843652095358504</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>439</v>
@@ -10004,19 +10004,19 @@
         <v>323433</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>293011</v>
+        <v>295816</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>356235</v>
+        <v>359584</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.0734747538080802</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.06656383490945138</v>
+        <v>0.06720104946493148</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.08092645531890344</v>
+        <v>0.08168736711600655</v>
       </c>
     </row>
     <row r="16">
@@ -10033,19 +10033,19 @@
         <v>136094</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>117319</v>
+        <v>116727</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>155767</v>
+        <v>158099</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06101332000200557</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05259616274114332</v>
+        <v>0.05233066752907469</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06983288807520367</v>
+        <v>0.07087823648843318</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>318</v>
@@ -10054,19 +10054,19 @@
         <v>148599</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>131528</v>
+        <v>130965</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>166771</v>
+        <v>166546</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.06843485807149199</v>
+        <v>0.06843485807149198</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06057326552186728</v>
+        <v>0.06031385515000112</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07680384030198795</v>
+        <v>0.07669987737497276</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>500</v>
@@ -10075,19 +10075,19 @@
         <v>284693</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>258418</v>
+        <v>256674</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>313360</v>
+        <v>312202</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.06467420626946831</v>
+        <v>0.06467420626946832</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05870531834244071</v>
+        <v>0.05830895494015733</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07118640534111083</v>
+        <v>0.07092345429066671</v>
       </c>
     </row>
     <row r="17">
@@ -10104,19 +10104,19 @@
         <v>184206</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>151809</v>
+        <v>148941</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>226205</v>
+        <v>223766</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08258250175748906</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06805864474080574</v>
+        <v>0.06677268000993102</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1014116297601039</v>
+        <v>0.1003181957693389</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>239</v>
@@ -10125,19 +10125,19 @@
         <v>205732</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>178594</v>
+        <v>180549</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>236464</v>
+        <v>239992</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.09474666800974806</v>
+        <v>0.09474666800974803</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08224876778845561</v>
+        <v>0.08314911164824439</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1088996449418851</v>
+        <v>0.1105244357142973</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>360</v>
@@ -10146,19 +10146,19 @@
         <v>389938</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>343326</v>
+        <v>343571</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>439099</v>
+        <v>439115</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08858282524449239</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07799397377105161</v>
+        <v>0.078049535065374</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09975073673501218</v>
+        <v>0.0997545310822026</v>
       </c>
     </row>
     <row r="18">
@@ -10175,19 +10175,19 @@
         <v>204736</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>178874</v>
+        <v>178755</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>233107</v>
+        <v>231990</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.09178656292319948</v>
+        <v>0.09178656292319946</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0801921699578084</v>
+        <v>0.08013899694582718</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1045058335728346</v>
+        <v>0.10400483855762</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>308</v>
@@ -10196,19 +10196,19 @@
         <v>221237</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>196668</v>
+        <v>199320</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>246337</v>
+        <v>246775</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.1018873459581224</v>
+        <v>0.1018873459581223</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0905721278717338</v>
+        <v>0.09179385859926263</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1134467358759678</v>
+        <v>0.1136483249335366</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>520</v>
@@ -10217,19 +10217,19 @@
         <v>425973</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>387499</v>
+        <v>390967</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>463318</v>
+        <v>463590</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.09676906352576377</v>
+        <v>0.09676906352576375</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.08802865088719421</v>
+        <v>0.08881654043595111</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1052525856510995</v>
+        <v>0.1053144713940681</v>
       </c>
     </row>
     <row r="19">
@@ -10246,19 +10246,19 @@
         <v>371765</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>328157</v>
+        <v>325942</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>418580</v>
+        <v>416515</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1666685735337677</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1471182956244846</v>
+        <v>0.1461252423875298</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1876565762560826</v>
+        <v>0.1867306675196202</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>433</v>
@@ -10267,19 +10267,19 @@
         <v>348099</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>315343</v>
+        <v>317182</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>380709</v>
+        <v>379586</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1603112379829114</v>
+        <v>0.1603112379829113</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.145226047954768</v>
+        <v>0.1460729601629864</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1753296081859516</v>
+        <v>0.1748122444171129</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>686</v>
@@ -10288,19 +10288,19 @@
         <v>719864</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>666536</v>
+        <v>669286</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>774800</v>
+        <v>775889</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1635326356462466</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1514181460822462</v>
+        <v>0.1520427867534175</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1760125914883593</v>
+        <v>0.1762598686725734</v>
       </c>
     </row>
     <row r="20">
@@ -10317,19 +10317,19 @@
         <v>193259</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>166346</v>
+        <v>166432</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>220792</v>
+        <v>223390</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.08664123508027921</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07457572551981158</v>
+        <v>0.07461429350586728</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.09898456615154803</v>
+        <v>0.1001494001402812</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>306</v>
@@ -10338,19 +10338,19 @@
         <v>178613</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>155784</v>
+        <v>160038</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>199413</v>
+        <v>202381</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.08225733794851382</v>
+        <v>0.08225733794851381</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07174387763093146</v>
+        <v>0.07370283680284009</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09183658567229701</v>
+        <v>0.09320330383896759</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>498</v>
@@ -10359,19 +10359,19 @@
         <v>371872</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>338032</v>
+        <v>338784</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>412391</v>
+        <v>413359</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.08447875222869423</v>
+        <v>0.08447875222869425</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07679126001998153</v>
+        <v>0.07696210707030303</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09368354432721286</v>
+        <v>0.09390347861637773</v>
       </c>
     </row>
     <row r="21">
@@ -10463,19 +10463,19 @@
         <v>142848</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>121615</v>
+        <v>119377</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>168102</v>
+        <v>164183</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2007462495081356</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1709062899304591</v>
+        <v>0.1677611675666628</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2362354264146333</v>
+        <v>0.2307275774568471</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>145</v>
@@ -10484,19 +10484,19 @@
         <v>116793</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>100932</v>
+        <v>98690</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>134462</v>
+        <v>136278</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.1589290519885185</v>
+        <v>0.1589290519885184</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.137345200730014</v>
+        <v>0.1342943319308477</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1829722775100177</v>
+        <v>0.1854426631590008</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>280</v>
@@ -10505,19 +10505,19 @@
         <v>259642</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>230708</v>
+        <v>232599</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>288790</v>
+        <v>288939</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.1795009908777203</v>
+        <v>0.1795009908777202</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1594977894175821</v>
+        <v>0.160805314908192</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1996523003805867</v>
+        <v>0.1997552225589375</v>
       </c>
     </row>
     <row r="23">
@@ -10534,19 +10534,19 @@
         <v>165664</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>142044</v>
+        <v>142355</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>192118</v>
+        <v>189594</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2328098215678618</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1996154736319324</v>
+        <v>0.2000521416363826</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2699858339943009</v>
+        <v>0.266437688260124</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>244</v>
@@ -10555,19 +10555,19 @@
         <v>198615</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>177104</v>
+        <v>177502</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>223136</v>
+        <v>222775</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2702697754878786</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2409975741533158</v>
+        <v>0.2415394268725593</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3036374527605708</v>
+        <v>0.3031458205463015</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>390</v>
@@ -10576,19 +10576,19 @@
         <v>364279</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>332720</v>
+        <v>331000</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>398291</v>
+        <v>397171</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2518413793125159</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2300232453777808</v>
+        <v>0.2288339166571878</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2753552523518401</v>
+        <v>0.2745805680789727</v>
       </c>
     </row>
     <row r="24">
@@ -10605,19 +10605,19 @@
         <v>31032</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>22625</v>
+        <v>23160</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>41872</v>
+        <v>41815</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04361001159078493</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03179564537932627</v>
+        <v>0.0325463094127255</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05884340925074835</v>
+        <v>0.05876353449673934</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>76</v>
@@ -10626,19 +10626,19 @@
         <v>50291</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>39257</v>
+        <v>39173</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>62500</v>
+        <v>62409</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.06843411916793307</v>
+        <v>0.06843411916793309</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05341957926484658</v>
+        <v>0.05330593973814501</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.08504841624333849</v>
+        <v>0.08492401399183966</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>118</v>
@@ -10647,19 +10647,19 @@
         <v>81323</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>66962</v>
+        <v>67986</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>96546</v>
+        <v>97319</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.05622191810361037</v>
+        <v>0.05622191810361035</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04629377309113121</v>
+        <v>0.04700177549779341</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06674629071725892</v>
+        <v>0.06728080802712609</v>
       </c>
     </row>
     <row r="25">
@@ -10676,19 +10676,19 @@
         <v>57327</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>46114</v>
+        <v>45024</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>71405</v>
+        <v>70064</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08056274515693074</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06480421076487011</v>
+        <v>0.06327216460175425</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1003460298965712</v>
+        <v>0.09846218980170024</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>112</v>
@@ -10697,19 +10697,19 @@
         <v>54158</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>44239</v>
+        <v>44910</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>66770</v>
+        <v>65973</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07369627395073106</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06019878355384797</v>
+        <v>0.06111239872729792</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09085898064536493</v>
+        <v>0.08977421176717354</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>190</v>
@@ -10718,19 +10718,19 @@
         <v>111485</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>96099</v>
+        <v>95677</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>128056</v>
+        <v>127532</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.0770742292996551</v>
+        <v>0.07707422929965509</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06643691482697416</v>
+        <v>0.06614545806974585</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08853009560770814</v>
+        <v>0.08816780515831306</v>
       </c>
     </row>
     <row r="26">
@@ -10747,19 +10747,19 @@
         <v>116834</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>95206</v>
+        <v>94506</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>140630</v>
+        <v>141236</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1641872889564231</v>
+        <v>0.164187288956423</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1337944264935136</v>
+        <v>0.1328098775199391</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1976290309872615</v>
+        <v>0.1984806975916365</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>150</v>
@@ -10768,19 +10768,19 @@
         <v>116093</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>98253</v>
+        <v>97877</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>135782</v>
+        <v>136029</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.1579762649348901</v>
+        <v>0.1579762649348902</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1337000502800217</v>
+        <v>0.1331883507322559</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1847682798206419</v>
+        <v>0.1851037827730093</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>247</v>
@@ -10789,19 +10789,19 @@
         <v>232927</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>204980</v>
+        <v>204702</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>267613</v>
+        <v>264903</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.1610317735339636</v>
+        <v>0.1610317735339635</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1417109015797453</v>
+        <v>0.141518672750051</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1850121032248972</v>
+        <v>0.1831379915071176</v>
       </c>
     </row>
     <row r="27">
@@ -10818,19 +10818,19 @@
         <v>39602</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>29422</v>
+        <v>29640</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>52237</v>
+        <v>52882</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.05565237137130039</v>
+        <v>0.05565237137130038</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.04134635779404499</v>
+        <v>0.04165272017482679</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.07340911380904568</v>
+        <v>0.07431564173426401</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>65</v>
@@ -10839,19 +10839,19 @@
         <v>48124</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>37593</v>
+        <v>37669</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>59661</v>
+        <v>60595</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.06548549611009366</v>
+        <v>0.06548549611009369</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.05115536443264001</v>
+        <v>0.05125830700822726</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.08118545173652091</v>
+        <v>0.08245561213841883</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>110</v>
@@ -10860,19 +10860,19 @@
         <v>87725</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>72614</v>
+        <v>72378</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>105587</v>
+        <v>106666</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.06064809778560153</v>
+        <v>0.06064809778560152</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.05020104872310258</v>
+        <v>0.05003788809253662</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.07299653429469594</v>
+        <v>0.07374246200975459</v>
       </c>
     </row>
     <row r="28">
@@ -10889,19 +10889,19 @@
         <v>101939</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>81593</v>
+        <v>81143</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>124397</v>
+        <v>127884</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1432556891232566</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1146631044949911</v>
+        <v>0.1140309690252692</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1748161258433039</v>
+        <v>0.1797166650593073</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>97</v>
@@ -10910,19 +10910,19 @@
         <v>76776</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>62377</v>
+        <v>63210</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>92061</v>
+        <v>94302</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1044746871346112</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.08488044293511256</v>
+        <v>0.08601374943276995</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1252740608121377</v>
+        <v>0.1283230169154348</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>171</v>
@@ -10931,19 +10931,19 @@
         <v>178715</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>152491</v>
+        <v>153689</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>205915</v>
+        <v>208025</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1235529719144117</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1054230117671589</v>
+        <v>0.1062518359646891</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1423574346332813</v>
+        <v>0.1438161980242685</v>
       </c>
     </row>
     <row r="29">
@@ -10960,19 +10960,19 @@
         <v>56340</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>43948</v>
+        <v>42757</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>72327</v>
+        <v>69489</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.0791758227253069</v>
+        <v>0.07917582272530688</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06176041578371994</v>
+        <v>0.06008611757705951</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1016420222519498</v>
+        <v>0.09765395555370952</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>115</v>
@@ -10981,19 +10981,19 @@
         <v>74027</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>60776</v>
+        <v>60660</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>90467</v>
+        <v>89583</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1007343312253437</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.08270274760201707</v>
+        <v>0.08254427667838815</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1231049249079747</v>
+        <v>0.1219016123430893</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>179</v>
@@ -11002,19 +11002,19 @@
         <v>130368</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>112431</v>
+        <v>110135</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>151591</v>
+        <v>152669</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.09012863917252166</v>
+        <v>0.09012863917252165</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07772809177496991</v>
+        <v>0.07614107814874843</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1048008167199413</v>
+        <v>0.1055461088099396</v>
       </c>
     </row>
     <row r="30">
@@ -11106,19 +11106,19 @@
         <v>794996</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>742798</v>
+        <v>742475</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>850320</v>
+        <v>849322</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2258073235134327</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2109811793863802</v>
+        <v>0.2108895586242742</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2415214146562909</v>
+        <v>0.2412378547795615</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1061</v>
@@ -11127,19 +11127,19 @@
         <v>830608</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>788783</v>
+        <v>790377</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>875170</v>
+        <v>879329</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2227842748477975</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2115658975015406</v>
+        <v>0.2119935317813756</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2347364706739055</v>
+        <v>0.2358521586183365</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1820</v>
@@ -11148,19 +11148,19 @@
         <v>1625604</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1556477</v>
+        <v>1556167</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1700252</v>
+        <v>1691453</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.2242525063286867</v>
+        <v>0.2242525063286868</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2147164008927679</v>
+        <v>0.2146736498873017</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2345501471907685</v>
+        <v>0.2333364056112998</v>
       </c>
     </row>
     <row r="32">
@@ -11177,19 +11177,19 @@
         <v>714407</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>659918</v>
+        <v>660416</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>768089</v>
+        <v>768514</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2029171896350685</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1874403699519117</v>
+        <v>0.1875818735209147</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2181647710239303</v>
+        <v>0.2182854812955214</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>957</v>
@@ -11198,19 +11198,19 @@
         <v>770059</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>725568</v>
+        <v>722280</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>820618</v>
+        <v>814451</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2065439479153866</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1946105230194927</v>
+        <v>0.1937286617310276</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2201048407538728</v>
+        <v>0.2184505762183405</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1551</v>
@@ -11219,19 +11219,19 @@
         <v>1484466</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1412418</v>
+        <v>1417356</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1554923</v>
+        <v>1555835</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.2047825073070133</v>
+        <v>0.2047825073070132</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1948434659937609</v>
+        <v>0.1955245562740422</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2145020096623588</v>
+        <v>0.2146277732177586</v>
       </c>
     </row>
     <row r="33">
@@ -11248,19 +11248,19 @@
         <v>270707</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>243104</v>
+        <v>241856</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>299564</v>
+        <v>298911</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.07689050712730747</v>
+        <v>0.07689050712730748</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.06905012882678001</v>
+        <v>0.06869570883923887</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.08508698707214021</v>
+        <v>0.08490144147592282</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>460</v>
@@ -11269,19 +11269,19 @@
         <v>263750</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>239764</v>
+        <v>241301</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>290011</v>
+        <v>293216</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.07074266577143187</v>
+        <v>0.07074266577143186</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.06430903756729885</v>
+        <v>0.06472144827728807</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.07778635201828353</v>
+        <v>0.07864598305027283</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>831</v>
@@ -11290,19 +11290,19 @@
         <v>534457</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>500549</v>
+        <v>501793</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>574369</v>
+        <v>574890</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.07372854367701055</v>
+        <v>0.07372854367701057</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.06905080486926003</v>
+        <v>0.0692225240095273</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.07923433149901872</v>
+        <v>0.07930615588627321</v>
       </c>
     </row>
     <row r="34">
@@ -11319,19 +11319,19 @@
         <v>204474</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>179166</v>
+        <v>182710</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>231741</v>
+        <v>234067</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.05807792367403637</v>
+        <v>0.05807792367403638</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.05088961103037658</v>
+        <v>0.05189603873721049</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.06582272891830816</v>
+        <v>0.06648348378832465</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>491</v>
@@ -11340,19 +11340,19 @@
         <v>226823</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>206256</v>
+        <v>206268</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>249441</v>
+        <v>249009</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.06083816034278556</v>
+        <v>0.06083816034278555</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0553215023037362</v>
+        <v>0.05532486196523188</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.06690454400885376</v>
+        <v>0.06678876354243569</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>769</v>
@@ -11361,19 +11361,19 @@
         <v>431297</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>397758</v>
+        <v>399206</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>465529</v>
+        <v>464680</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.05949757114955442</v>
+        <v>0.05949757114955444</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.05487083526229557</v>
+        <v>0.05507053445107231</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.06421981701393403</v>
+        <v>0.0641027400542253</v>
       </c>
     </row>
     <row r="35">
@@ -11390,19 +11390,19 @@
         <v>372558</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>325865</v>
+        <v>329061</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>422419</v>
+        <v>427314</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.1058198173245634</v>
+        <v>0.1058198173245635</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.09255728867030075</v>
+        <v>0.0934649945621579</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1199820643460286</v>
+        <v>0.1213724027071552</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>597</v>
@@ -11411,19 +11411,19 @@
         <v>421164</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>386525</v>
+        <v>389190</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>464500</v>
+        <v>461465</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1129639227907912</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1036730912734608</v>
+        <v>0.1043877362684643</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1245873127015309</v>
+        <v>0.1237732157649471</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>888</v>
@@ -11432,19 +11432,19 @@
         <v>793722</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>733215</v>
+        <v>738877</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>858352</v>
+        <v>853163</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.109494180253218</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1011471700082118</v>
+        <v>0.1019282990923246</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1184098844543164</v>
+        <v>0.1176941034236497</v>
       </c>
     </row>
     <row r="36">
@@ -11461,19 +11461,19 @@
         <v>315384</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>285291</v>
+        <v>284687</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>349160</v>
+        <v>354217</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.08958036528462308</v>
+        <v>0.0895803652846231</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.08103293789941611</v>
+        <v>0.08086135076096122</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.09917393011031167</v>
+        <v>0.1006103593280349</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>533</v>
@@ -11482,19 +11482,19 @@
         <v>354596</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>324559</v>
+        <v>325298</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>387450</v>
+        <v>388154</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.09510904348741077</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.08705276496746571</v>
+        <v>0.08725091550583838</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1039211364582687</v>
+        <v>0.1041099743031877</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>892</v>
@@ -11503,19 +11503,19 @@
         <v>669980</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>626008</v>
+        <v>627627</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>714546</v>
+        <v>719895</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.09242388016956081</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.08635796084010358</v>
+        <v>0.08658124390794159</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.09857180602232961</v>
+        <v>0.09930972429440363</v>
       </c>
     </row>
     <row r="37">
@@ -11532,19 +11532,19 @@
         <v>529311</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>477111</v>
+        <v>476988</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>581731</v>
+        <v>581088</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.150343343112861</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1355166317294927</v>
+        <v>0.1354818066838108</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1652325163860073</v>
+        <v>0.165049800705923</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>717</v>
@@ -11553,19 +11553,19 @@
         <v>546494</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>507809</v>
+        <v>507695</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>588760</v>
+        <v>591307</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1465797454973906</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1362037584324763</v>
+        <v>0.136173074646248</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1579161957589656</v>
+        <v>0.1585994143893384</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1098</v>
@@ -11574,19 +11574,19 @@
         <v>1075806</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1013402</v>
+        <v>1013525</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1139191</v>
+        <v>1149620</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.1484076461075425</v>
+        <v>0.1484076461075424</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1397990694549247</v>
+        <v>0.1398160036730693</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1571517411419561</v>
+        <v>0.1585903262090411</v>
       </c>
     </row>
     <row r="38">
@@ -11603,19 +11603,19 @@
         <v>318845</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>286165</v>
+        <v>286057</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>357847</v>
+        <v>357602</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.09056353032810747</v>
+        <v>0.0905635303281075</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.08128109733238377</v>
+        <v>0.08125046346790868</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1016414295696444</v>
+        <v>0.1015717354072351</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>536</v>
@@ -11624,19 +11624,19 @@
         <v>314812</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>287035</v>
+        <v>290305</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>347427</v>
+        <v>346593</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.08443823934700578</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.07698797051665851</v>
+        <v>0.07786512406460476</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.09318631705051132</v>
+        <v>0.09296262972098529</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>867</v>
@@ -11645,19 +11645,19 @@
         <v>633657</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>589234</v>
+        <v>588934</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>678668</v>
+        <v>682623</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.08741316500741382</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.08128497403735617</v>
+        <v>0.08124356284595662</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.0936223558081897</v>
+        <v>0.09416804304343823</v>
       </c>
     </row>
     <row r="39">
